--- a/raw/All_Jabar_Scenarios.xlsx
+++ b/raw/All_Jabar_Scenarios.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="71">
   <si>
     <t>Tanaman Pangan</t>
   </si>
@@ -1095,7 +1095,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DBD-45D7-B3B4-7036B9BFADC8}"/>
+              <c16:uniqueId val="{00000000-5BAE-4A3F-9BE1-ACD1824C4DA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1228,7 +1228,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DBD-45D7-B3B4-7036B9BFADC8}"/>
+              <c16:uniqueId val="{00000001-5BAE-4A3F-9BE1-ACD1824C4DA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1638,6 +1638,1635 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97E2-490A-B827-6171E3ED2210}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IE BAU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Limbah_ALL!$B$137:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Limbah_ALL!$F$137:$F$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.4562007562537898E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3421397642193802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2335102475590798E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1300535650254599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.03152339118392E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9376851303824501E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.84831535819058E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7632012894364099E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6821402715753001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.60493930218377E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.53141456942993E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.46139101442627E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.39470191442279E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3311884858480399E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.27069950625305E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97E2-490A-B827-6171E3ED2210}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="121906592"/>
+        <c:axId val="419349952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121906592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419349952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419349952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121906592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>GDP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GDP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Limbah_ALL!$B$137:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>L_E_P!$E$119:$E$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2278605801.7028599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1681474281.6265199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1765567540.0392499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1853868008.8847301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1946586785.4428699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2043990792.0044899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2146356614.9789801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2253853536.6005001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2366708463.89428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2485224401.9521198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3286886474.4183202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2740329958.7543898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2877526971.40452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3021583834.9614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3172843541.5791798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED1C-4DF5-998D-46F75BCA5D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GDP BAU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Limbah_ALL!$B$137:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Limbah_ALL!$E$137:$E$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1524974828.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1601223569.4158299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1681284747.8866301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1765348985.2809601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1853616434.5450101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1946297256.27226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2043612119.08587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2145792725.0401599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2253082361.29217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2365736479.3567801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2484023303.3246198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2608224468.49085</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2738635691.91539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2875567476.5111599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3019345850.33672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED1C-4DF5-998D-46F75BCA5D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="121906592"/>
+        <c:axId val="419349952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121906592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419349952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419349952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121906592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Emisi Kumulatif</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Emisi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Limbah_ALL!$B$137:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>L_E_P!$D$119:$D$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>63189627.4180272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104247725.033665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147358745.039249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192625355.20361301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240155363.63644001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290061712.75829297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>342463904.82885098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397486844.10147399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>455261417.55630499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515925369.50251502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>603709862.84848297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>670593201.99471998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740821357.91556001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>814561571.45513105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>891989445.49265206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DBD-45D7-B3B4-7036B9BFADC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Emisi BAU</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Limbah_ALL!$B$137:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Limbah_ALL!$D$137:$D$151</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>37456443.265384503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74959337.198725596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112511004.33342101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150113883.329539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187770534.78015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225483647.30797899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>263256043.96688801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301090688.96342802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338990694.71448398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>376959329.257779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>415000024.03292698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>453116382.05151999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>491312186.47573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>529591409.62583703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>567958222.43813801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DBD-45D7-B3B4-7036B9BFADC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="121906592"/>
+        <c:axId val="419349952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="121906592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419349952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419349952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121906592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Intensitas Emisi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Limbah_ALL!$B$137:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Limbah_Pertanian!$F$119:$F$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.3276516808010701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.21898329179058E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1154943651621901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.01693356359278E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.92279484525598E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8330896947521099E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7476602852775001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6663024450237499E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.58886317433681E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51512949468765E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4449342813581E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.37810648052049E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31448342285068E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.25391040210354E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1963550626541E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4F2E-4A85-8D6F-5BC6817455E4}"/>
             </c:ext>
           </c:extLst>
@@ -1977,7 +3606,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6985,6 +8614,126 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8893,6 +10642,1554 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13911,6 +17208,125 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1829DF5B-A5DE-42A3-A354-56144DE1EAF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>586628</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44264</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F61111-853F-4DD0-BC1B-E798D782472E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133911</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>90768</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DD413A-1140-4D7A-B1D4-F1B702CE6AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>183215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>48186</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>159683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088F565C-B899-4FC0-85D5-F9DE93F1C693}"/>
             </a:ext>
           </a:extLst>
@@ -27113,8 +30529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection sqref="A1:AF157"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33469,28 +36885,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -39835,4 +43236,6362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2026</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2027</v>
+      </c>
+      <c r="O2" s="3">
+        <v>2028</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2029</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>68446249.969624504</v>
+      </c>
+      <c r="D3" s="4">
+        <v>69136056.974053293</v>
+      </c>
+      <c r="E3" s="4">
+        <v>72592843.045882598</v>
+      </c>
+      <c r="F3" s="4">
+        <v>76222511.013176307</v>
+      </c>
+      <c r="G3" s="4">
+        <v>80033725.952486694</v>
+      </c>
+      <c r="H3" s="4">
+        <v>84035181.833257705</v>
+      </c>
+      <c r="I3" s="4">
+        <v>88237105.923659906</v>
+      </c>
+      <c r="J3" s="4">
+        <v>92649380.834379897</v>
+      </c>
+      <c r="K3" s="4">
+        <v>97281898.276200697</v>
+      </c>
+      <c r="L3" s="4">
+        <v>102146438.08034299</v>
+      </c>
+      <c r="M3" s="4">
+        <v>109856575.087336</v>
+      </c>
+      <c r="N3" s="4">
+        <v>112617360.01828501</v>
+      </c>
+      <c r="O3" s="4">
+        <v>118248672.903091</v>
+      </c>
+      <c r="P3" s="4">
+        <v>124161551.43079799</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>130370073.89584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>25384585.9684214</v>
+      </c>
+      <c r="D4" s="4">
+        <v>26478321.950341899</v>
+      </c>
+      <c r="E4" s="4">
+        <v>27802272.631965201</v>
+      </c>
+      <c r="F4" s="4">
+        <v>29192422.353254501</v>
+      </c>
+      <c r="G4" s="4">
+        <v>30652081.746953301</v>
+      </c>
+      <c r="H4" s="4">
+        <v>32185032.456540301</v>
+      </c>
+      <c r="I4" s="4">
+        <v>33794647.797784299</v>
+      </c>
+      <c r="J4" s="4">
+        <v>35484752.698324397</v>
+      </c>
+      <c r="K4" s="4">
+        <v>37259350.111192197</v>
+      </c>
+      <c r="L4" s="4">
+        <v>39122691.004157797</v>
+      </c>
+      <c r="M4" s="4">
+        <v>41246368.382650703</v>
+      </c>
+      <c r="N4" s="4">
+        <v>43133532.292536803</v>
+      </c>
+      <c r="O4" s="4">
+        <v>45290582.300899498</v>
+      </c>
+      <c r="P4" s="4">
+        <v>47555484.804743297</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>49933632.440310098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11401722.9498091</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11221999.126385801</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11783102.0580818</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12372262.3872336</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12990883.9188294</v>
+      </c>
+      <c r="H5" s="4">
+        <v>13640442.7810783</v>
+      </c>
+      <c r="I5" s="4">
+        <v>14322524.661954399</v>
+      </c>
+      <c r="J5" s="4">
+        <v>15038723.292049799</v>
+      </c>
+      <c r="K5" s="4">
+        <v>15790714.061314</v>
+      </c>
+      <c r="L5" s="4">
+        <v>16580323.461563</v>
+      </c>
+      <c r="M5" s="4">
+        <v>18123520.8997638</v>
+      </c>
+      <c r="N5" s="4">
+        <v>18279957.701478999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>19194029.288304701</v>
+      </c>
+      <c r="P5" s="4">
+        <v>20153804.448577002</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>21161568.368064199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18137312.9359456</v>
+      </c>
+      <c r="D6" s="4">
+        <v>18686683.676463399</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19620989.938221399</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20602035.641339201</v>
+      </c>
+      <c r="G6" s="4">
+        <v>21632170.4443294</v>
+      </c>
+      <c r="H6" s="4">
+        <v>22713545.105409201</v>
+      </c>
+      <c r="I6" s="4">
+        <v>23849106.092049401</v>
+      </c>
+      <c r="J6" s="4">
+        <v>25041593.0904206</v>
+      </c>
+      <c r="K6" s="4">
+        <v>26293485.876460399</v>
+      </c>
+      <c r="L6" s="4">
+        <v>27608206.306396801</v>
+      </c>
+      <c r="M6" s="4">
+        <v>29329107.505508501</v>
+      </c>
+      <c r="N6" s="4">
+        <v>30438142.029125899</v>
+      </c>
+      <c r="O6" s="4">
+        <v>31960095.267106101</v>
+      </c>
+      <c r="P6" s="4">
+        <v>33558146.170908898</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>35236099.616616301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2185222.5488510798</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2231174.36407959</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2351754.6837696899</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2478365.7348741</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2611309.91118277</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2750890.5760812401</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2897462.1022490701</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3051372.5716448301</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3212963.3619687399</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3382649.9043553802</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3629707.36520884</v>
+      </c>
+      <c r="N7" s="4">
+        <v>3747900.1953817299</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3944333.5888473699</v>
+      </c>
+      <c r="P7" s="4">
+        <v>4150588.6532732402</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>4367156.4617936602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1485098.8544842899</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1372324.67043065</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1440942.83204102</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1512992.5837139301</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1588645.6466793199</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1668053.48722058</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1751463.96889985</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1839048.1297683001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1931007.60060374</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2027569.30756666</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2307083.9339379999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2235418.3932949398</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2347200.6498676399</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2464572.0092199701</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>2587811.9442939302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>15477571.267931901</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16026767.180524601</v>
+      </c>
+      <c r="E9" s="4">
+        <v>16828277.060012199</v>
+      </c>
+      <c r="F9" s="4">
+        <v>17669895.740776598</v>
+      </c>
+      <c r="G9" s="4">
+        <v>18553646.3171818</v>
+      </c>
+      <c r="H9" s="4">
+        <v>19481370.102330498</v>
+      </c>
+      <c r="I9" s="4">
+        <v>20455620.941276699</v>
+      </c>
+      <c r="J9" s="4">
+        <v>21478789.288833398</v>
+      </c>
+      <c r="K9" s="4">
+        <v>22552812.722935598</v>
+      </c>
+      <c r="L9" s="4">
+        <v>23680860.622136801</v>
+      </c>
+      <c r="M9" s="4">
+        <v>25079457.750519201</v>
+      </c>
+      <c r="N9" s="4">
+        <v>26108983.718628101</v>
+      </c>
+      <c r="O9" s="4">
+        <v>27414840.158721201</v>
+      </c>
+      <c r="P9" s="4">
+        <v>28785989.4286949</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>30225696.159407102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>57176535.983540103</v>
+      </c>
+      <c r="D10" s="4">
+        <v>19193343.869443402</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20153015.171941001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>21160676.8618166</v>
+      </c>
+      <c r="G10" s="4">
+        <v>22218730.6041971</v>
+      </c>
+      <c r="H10" s="4">
+        <v>23329605.895850401</v>
+      </c>
+      <c r="I10" s="4">
+        <v>24496250.114398502</v>
+      </c>
+      <c r="J10" s="4">
+        <v>25721261.597931601</v>
+      </c>
+      <c r="K10" s="4">
+        <v>27007476.912556399</v>
+      </c>
+      <c r="L10" s="4">
+        <v>28358053.577891398</v>
+      </c>
+      <c r="M10" s="4">
+        <v>68673323.864111707</v>
+      </c>
+      <c r="N10" s="4">
+        <v>31265169.844970401</v>
+      </c>
+      <c r="O10" s="4">
+        <v>32828631.155182701</v>
+      </c>
+      <c r="P10" s="4">
+        <v>34470265.530523799</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>36193981.623560898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1328392.3726820101</v>
+      </c>
+      <c r="D11" s="4">
+        <v>989789.11531799997</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1039281.22226624</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1091248.89481339</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1145816.3113113299</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1203127.4797258801</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1263319.80616407</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1326527.1915341499</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1392887.19511144</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1462573.50310626</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1921482.7273144899</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1612573.26823412</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1693243.8794148201</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1777948.01811131</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1866887.36421351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>15061933.7527033</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8588736.1358219609</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9018172.4493828807</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9469082.1162788197</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9942539.2241870407</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10439630.710414199</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10961635.2824701</v>
+      </c>
+      <c r="J12" s="4">
+        <v>11509747.697627399</v>
+      </c>
+      <c r="K12" s="4">
+        <v>12085255.815832401</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12689550.1157248</v>
+      </c>
+      <c r="M12" s="4">
+        <v>20206243.713300399</v>
+      </c>
+      <c r="N12" s="4">
+        <v>13990293.6031454</v>
+      </c>
+      <c r="O12" s="4">
+        <v>14689839.7953985</v>
+      </c>
+      <c r="P12" s="4">
+        <v>15424363.297058599</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>16195612.968069499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>34241473.269746199</v>
+      </c>
+      <c r="D13" s="4">
+        <v>27522990.869419701</v>
+      </c>
+      <c r="E13" s="4">
+        <v>28899122.430467501</v>
+      </c>
+      <c r="F13" s="4">
+        <v>30344075.000575401</v>
+      </c>
+      <c r="G13" s="4">
+        <v>31861293.700575098</v>
+      </c>
+      <c r="H13" s="4">
+        <v>33453946.222238299</v>
+      </c>
+      <c r="I13" s="4">
+        <v>35126765.208230697</v>
+      </c>
+      <c r="J13" s="4">
+        <v>36883297.178659901</v>
+      </c>
+      <c r="K13" s="4">
+        <v>38727561.503142402</v>
+      </c>
+      <c r="L13" s="4">
+        <v>40664141.337730698</v>
+      </c>
+      <c r="M13" s="4">
+        <v>50726634.055130199</v>
+      </c>
+      <c r="N13" s="4">
+        <v>44832629.435906798</v>
+      </c>
+      <c r="O13" s="4">
+        <v>47074462.667280599</v>
+      </c>
+      <c r="P13" s="4">
+        <v>49428387.5603287</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>51900008.701074101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>72663025.8729783</v>
+      </c>
+      <c r="D14" s="4">
+        <v>73022612.628669202</v>
+      </c>
+      <c r="E14" s="4">
+        <v>76673749.221341297</v>
+      </c>
+      <c r="F14" s="4">
+        <v>80507464.508769795</v>
+      </c>
+      <c r="G14" s="4">
+        <v>84532897.182510406</v>
+      </c>
+      <c r="H14" s="4">
+        <v>88759497.726972207</v>
+      </c>
+      <c r="I14" s="4">
+        <v>93197764.259642303</v>
+      </c>
+      <c r="J14" s="4">
+        <v>97858070.196482107</v>
+      </c>
+      <c r="K14" s="4">
+        <v>102751211.15397599</v>
+      </c>
+      <c r="L14" s="4">
+        <v>107889202.264789</v>
+      </c>
+      <c r="M14" s="4">
+        <v>116401779.124294</v>
+      </c>
+      <c r="N14" s="4">
+        <v>118948728.142001</v>
+      </c>
+      <c r="O14" s="4">
+        <v>124896595.090755</v>
+      </c>
+      <c r="P14" s="4">
+        <v>131141855.391056</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>137699378.722581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3251068.0269608102</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3324651.4286646098</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3490889.5916978498</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3665440.1240634401</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3848718.8016876001</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4041154.4050421002</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4243225.0565206502</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4455401.6933468403</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4678183.8328980803</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4912108.6709188698</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5242468.4058345202</v>
+      </c>
+      <c r="N15" s="4">
+        <v>5415631.8778647101</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5686429.1219730796</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5970766.2223166302</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>6269320.1787777999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <v>103015257.690015</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100315982.101501</v>
+      </c>
+      <c r="E16" s="4">
+        <v>105331756.41911601</v>
+      </c>
+      <c r="F16" s="4">
+        <v>110598363.07205001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>116128357.498558</v>
+      </c>
+      <c r="H16" s="4">
+        <v>121933973.297176</v>
+      </c>
+      <c r="I16" s="4">
+        <v>128031294.74324299</v>
+      </c>
+      <c r="J16" s="4">
+        <v>134433706.87731901</v>
+      </c>
+      <c r="K16" s="4">
+        <v>141155939.633973</v>
+      </c>
+      <c r="L16" s="4">
+        <v>148214608.62209901</v>
+      </c>
+      <c r="M16" s="4">
+        <v>163102414.549849</v>
+      </c>
+      <c r="N16" s="4">
+        <v>163408393.67265299</v>
+      </c>
+      <c r="O16" s="4">
+        <v>171579685.36388901</v>
+      </c>
+      <c r="P16" s="4">
+        <v>180159541.625615</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>189168390.75417799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9701186.9552534092</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9656506.5497334693</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10139335.8394145</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10646308.811861901</v>
+      </c>
+      <c r="G17" s="4">
+        <v>11178633.531209201</v>
+      </c>
+      <c r="H17" s="4">
+        <v>11737585.665366801</v>
+      </c>
+      <c r="I17" s="4">
+        <v>12324533.1874849</v>
+      </c>
+      <c r="J17" s="4">
+        <v>12940840.3610372</v>
+      </c>
+      <c r="K17" s="4">
+        <v>13587945.730542401</v>
+      </c>
+      <c r="L17" s="4">
+        <v>14267424.810452299</v>
+      </c>
+      <c r="M17" s="4">
+        <v>15485395.6691802</v>
+      </c>
+      <c r="N17" s="4">
+        <v>15730003.5332774</v>
+      </c>
+      <c r="O17" s="4">
+        <v>16516585.5022189</v>
+      </c>
+      <c r="P17" s="4">
+        <v>17342496.570037499</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>18209703.196790401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7868225.30414725</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6978582.1957640601</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7327514.0998512004</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7693893.3865055796</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8078592.5641892003</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8482498.3639969602</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8906640.9719488695</v>
+      </c>
+      <c r="J18" s="4">
+        <v>9351994.2426283099</v>
+      </c>
+      <c r="K18" s="4">
+        <v>9819610.9481583294</v>
+      </c>
+      <c r="L18" s="4">
+        <v>10310613.146684101</v>
+      </c>
+      <c r="M18" s="4">
+        <v>12048124.6540656</v>
+      </c>
+      <c r="N18" s="4">
+        <v>11367495.3703338</v>
+      </c>
+      <c r="O18" s="4">
+        <v>11935891.783683401</v>
+      </c>
+      <c r="P18" s="4">
+        <v>12532708.0218227</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>13159365.071787899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4">
+        <v>23387973.758269701</v>
+      </c>
+      <c r="D19" s="4">
+        <v>17494255.9616693</v>
+      </c>
+      <c r="E19" s="4">
+        <v>18368823.310222398</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19287170.886471599</v>
+      </c>
+      <c r="G19" s="4">
+        <v>20251497.536589298</v>
+      </c>
+      <c r="H19" s="4">
+        <v>21261477.769686501</v>
+      </c>
+      <c r="I19" s="4">
+        <v>22324502.483854901</v>
+      </c>
+      <c r="J19" s="4">
+        <v>23440914.985200901</v>
+      </c>
+      <c r="K19" s="4">
+        <v>24612858.8537471</v>
+      </c>
+      <c r="L19" s="4">
+        <v>25843717.303056601</v>
+      </c>
+      <c r="M19" s="4">
+        <v>33862757.751658298</v>
+      </c>
+      <c r="N19" s="4">
+        <v>28493140.1122091</v>
+      </c>
+      <c r="O19" s="4">
+        <v>29918012.620448399</v>
+      </c>
+      <c r="P19" s="4">
+        <v>31414128.7576111</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>32985050.696936201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
+        <v>54304066.568566002</v>
+      </c>
+      <c r="D20" s="4">
+        <v>40696446.992045298</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42731699.890869498</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44868840.927919097</v>
+      </c>
+      <c r="G20" s="4">
+        <v>47113022.9355046</v>
+      </c>
+      <c r="H20" s="4">
+        <v>49472424.6195428</v>
+      </c>
+      <c r="I20" s="4">
+        <v>51951400.962576702</v>
+      </c>
+      <c r="J20" s="4">
+        <v>54555060.385702297</v>
+      </c>
+      <c r="K20" s="4">
+        <v>57287844.178983703</v>
+      </c>
+      <c r="L20" s="4">
+        <v>60158399.618331797</v>
+      </c>
+      <c r="M20" s="4">
+        <v>78718438.497925207</v>
+      </c>
+      <c r="N20" s="4">
+        <v>66337270.198710501</v>
+      </c>
+      <c r="O20" s="4">
+        <v>69660296.934096202</v>
+      </c>
+      <c r="P20" s="4">
+        <v>73149475.010648102</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>76813111.9926413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30270951.2654051</v>
+      </c>
+      <c r="D21" s="4">
+        <v>21401789.1964912</v>
+      </c>
+      <c r="E21" s="4">
+        <v>22471871.1046988</v>
+      </c>
+      <c r="F21" s="4">
+        <v>23595471.129998099</v>
+      </c>
+      <c r="G21" s="4">
+        <v>24775268.792402599</v>
+      </c>
+      <c r="H21" s="4">
+        <v>26013651.390243601</v>
+      </c>
+      <c r="I21" s="4">
+        <v>27314515.356565699</v>
+      </c>
+      <c r="J21" s="4">
+        <v>28680490.940934099</v>
+      </c>
+      <c r="K21" s="4">
+        <v>30114677.206110999</v>
+      </c>
+      <c r="L21" s="4">
+        <v>31620668.6431573</v>
+      </c>
+      <c r="M21" s="4">
+        <v>43090247.352723002</v>
+      </c>
+      <c r="N21" s="4">
+        <v>34862315.217768803</v>
+      </c>
+      <c r="O21" s="4">
+        <v>36605688.556050003</v>
+      </c>
+      <c r="P21" s="4">
+        <v>38436230.565811202</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>40358299.671092503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4">
+        <v>26108613.702233501</v>
+      </c>
+      <c r="D22" s="4">
+        <v>12766029.4390171</v>
+      </c>
+      <c r="E22" s="4">
+        <v>13404326.1260098</v>
+      </c>
+      <c r="F22" s="4">
+        <v>14074541.457175801</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14778272.284863001</v>
+      </c>
+      <c r="H22" s="4">
+        <v>15517039.6908498</v>
+      </c>
+      <c r="I22" s="4">
+        <v>16292908.4493849</v>
+      </c>
+      <c r="J22" s="4">
+        <v>17107588.924886901</v>
+      </c>
+      <c r="K22" s="4">
+        <v>17962980.219760899</v>
+      </c>
+      <c r="L22" s="4">
+        <v>18861166.379673701</v>
+      </c>
+      <c r="M22" s="4">
+        <v>33754747.706285998</v>
+      </c>
+      <c r="N22" s="4">
+        <v>20794512.091287699</v>
+      </c>
+      <c r="O22" s="4">
+        <v>21834274.844830301</v>
+      </c>
+      <c r="P22" s="4">
+        <v>22926025.737474099</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>24072364.175525501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>23198078.1107154</v>
+      </c>
+      <c r="D23" s="4">
+        <v>19774296.491027098</v>
+      </c>
+      <c r="E23" s="4">
+        <v>20763010.2964289</v>
+      </c>
+      <c r="F23" s="4">
+        <v>21801161.004843201</v>
+      </c>
+      <c r="G23" s="4">
+        <v>22891220.760643099</v>
+      </c>
+      <c r="H23" s="4">
+        <v>24035746.4074625</v>
+      </c>
+      <c r="I23" s="4">
+        <v>25237548.6102755</v>
+      </c>
+      <c r="J23" s="4">
+        <v>26499446.796172298</v>
+      </c>
+      <c r="K23" s="4">
+        <v>27824432.3813866</v>
+      </c>
+      <c r="L23" s="4">
+        <v>29215675.423937999</v>
+      </c>
+      <c r="M23" s="4">
+        <v>35041894.426275998</v>
+      </c>
+      <c r="N23" s="4">
+        <v>32210326.075544801</v>
+      </c>
+      <c r="O23" s="4">
+        <v>33820863.799098998</v>
+      </c>
+      <c r="P23" s="4">
+        <v>35511928.416937701</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>37287546.258665599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4">
+        <v>231002045.57894501</v>
+      </c>
+      <c r="D24" s="4">
+        <v>161833304.07820001</v>
+      </c>
+      <c r="E24" s="4">
+        <v>169924922.98726001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>178421153.777621</v>
+      </c>
+      <c r="G24" s="4">
+        <v>187342235.35415101</v>
+      </c>
+      <c r="H24" s="4">
+        <v>196708308.167595</v>
+      </c>
+      <c r="I24" s="4">
+        <v>206543870.01941299</v>
+      </c>
+      <c r="J24" s="4">
+        <v>216871362.798035</v>
+      </c>
+      <c r="K24" s="4">
+        <v>227715031.59744</v>
+      </c>
+      <c r="L24" s="4">
+        <v>239101099.648848</v>
+      </c>
+      <c r="M24" s="4">
+        <v>327931516.23857701</v>
+      </c>
+      <c r="N24" s="4">
+        <v>263609611.12769499</v>
+      </c>
+      <c r="O24" s="4">
+        <v>276790408.09904701</v>
+      </c>
+      <c r="P24" s="4">
+        <v>290630244.99288899</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>305162073.69976997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4">
+        <v>124691274.83206999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>66986186.232918903</v>
+      </c>
+      <c r="E25" s="4">
+        <v>70335576.778868899</v>
+      </c>
+      <c r="F25" s="4">
+        <v>73852473.763386101</v>
+      </c>
+      <c r="G25" s="4">
+        <v>77545265.773206905</v>
+      </c>
+      <c r="H25" s="4">
+        <v>81422928.200693101</v>
+      </c>
+      <c r="I25" s="4">
+        <v>85495467.779959902</v>
+      </c>
+      <c r="J25" s="4">
+        <v>89771831.829553902</v>
+      </c>
+      <c r="K25" s="4">
+        <v>94261743.663607404</v>
+      </c>
+      <c r="L25" s="4">
+        <v>98976442.591420293</v>
+      </c>
+      <c r="M25" s="4">
+        <v>164821860.828244</v>
+      </c>
+      <c r="N25" s="4">
+        <v>109124831.98133899</v>
+      </c>
+      <c r="O25" s="4">
+        <v>114582685.33897801</v>
+      </c>
+      <c r="P25" s="4">
+        <v>120313431.304188</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>126330714.626175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4">
+        <v>154352627.14875901</v>
+      </c>
+      <c r="D26" s="4">
+        <v>142216005.19134</v>
+      </c>
+      <c r="E26" s="4">
+        <v>149326807.75221401</v>
+      </c>
+      <c r="F26" s="4">
+        <v>156793171.49817199</v>
+      </c>
+      <c r="G26" s="4">
+        <v>164632881.05431899</v>
+      </c>
+      <c r="H26" s="4">
+        <v>172864126.85483801</v>
+      </c>
+      <c r="I26" s="4">
+        <v>181507621.10402101</v>
+      </c>
+      <c r="J26" s="4">
+        <v>190583398.368379</v>
+      </c>
+      <c r="K26" s="4">
+        <v>200112819.89978299</v>
+      </c>
+      <c r="L26" s="4">
+        <v>210118868.936138</v>
+      </c>
+      <c r="M26" s="4">
+        <v>239534035.35825601</v>
+      </c>
+      <c r="N26" s="4">
+        <v>231656889.529331</v>
+      </c>
+      <c r="O26" s="4">
+        <v>243240142.02262601</v>
+      </c>
+      <c r="P26" s="4">
+        <v>255402557.21665299</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>268173093.077378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4260726.6466109399</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3863617.6629983899</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4056778.2503841198</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4259602.1986662596</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4472573.04118584</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4695838.5900227902</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4930612.8456202401</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5177147.1289892998</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5435985.0236825701</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5707790.6981583899</v>
+      </c>
+      <c r="M27" s="4">
+        <v>6574258.1084764097</v>
+      </c>
+      <c r="N27" s="4">
+        <v>6292852.4173510801</v>
+      </c>
+      <c r="O27" s="4">
+        <v>6607501.4605135499</v>
+      </c>
+      <c r="P27" s="4">
+        <v>6937882.9581357697</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>7284783.5310650999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4">
+        <v>8793105.7324880194</v>
+      </c>
+      <c r="D28" s="4">
+        <v>7941723.6687292699</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8338860.9080840005</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8755858.7259667702</v>
+      </c>
+      <c r="G28" s="4">
+        <v>9193711.2623202093</v>
+      </c>
+      <c r="H28" s="4">
+        <v>9653790.1514858902</v>
+      </c>
+      <c r="I28" s="4">
+        <v>10137003.2471302</v>
+      </c>
+      <c r="J28" s="4">
+        <v>10644395.845575901</v>
+      </c>
+      <c r="K28" s="4">
+        <v>11177133.1816664</v>
+      </c>
+      <c r="L28" s="4">
+        <v>11736534.3648207</v>
+      </c>
+      <c r="M28" s="4">
+        <v>13553513.6050865</v>
+      </c>
+      <c r="N28" s="4">
+        <v>12940645.4079825</v>
+      </c>
+      <c r="O28" s="4">
+        <v>13588222.1992596</v>
+      </c>
+      <c r="P28" s="4">
+        <v>14268177.8276687</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>14982131.2433454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4">
+        <v>21640950.3027706</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2478401.7761145202</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2602318.1573141902</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2732431.3122944199</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2869051.1364691099</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3012436.0899746502</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3163053.5469746701</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3321205.6486227801</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3487261.3214499601</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3661624.30829927</v>
+      </c>
+      <c r="M29" s="4">
+        <v>23125269.573101401</v>
+      </c>
+      <c r="N29" s="4">
+        <v>4036940.6386107001</v>
+      </c>
+      <c r="O29" s="4">
+        <v>4238787.59287332</v>
+      </c>
+      <c r="P29" s="4">
+        <v>4450726.8934504399</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>4673263.1595293097</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4">
+        <v>11209274.7771051</v>
+      </c>
+      <c r="D30" s="4">
+        <v>11132734.764053799</v>
+      </c>
+      <c r="E30" s="4">
+        <v>11689362.1165615</v>
+      </c>
+      <c r="F30" s="4">
+        <v>12273832.1809268</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12887543.0375212</v>
+      </c>
+      <c r="H30" s="4">
+        <v>13531852.519855101</v>
+      </c>
+      <c r="I30" s="4">
+        <v>14208439.7271566</v>
+      </c>
+      <c r="J30" s="4">
+        <v>14918925.707159599</v>
+      </c>
+      <c r="K30" s="4">
+        <v>15664833.6466874</v>
+      </c>
+      <c r="L30" s="4">
+        <v>16448146.1032722</v>
+      </c>
+      <c r="M30" s="4">
+        <v>17877285.4679165</v>
+      </c>
+      <c r="N30" s="4">
+        <v>18134226.160746802</v>
+      </c>
+      <c r="O30" s="4">
+        <v>19041008.246442799</v>
+      </c>
+      <c r="P30" s="4">
+        <v>19993129.427260499</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>20992856.673367001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2135836.0407340298</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1297470.64679742</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1362357.4934463999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1430490.21102493</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1502031.6835614799</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1577254.5319626101</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1656273.15638533</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1739251.1215494999</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1826366.2835529901</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1917849.78348118</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2914069.8607648802</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2114768.0174379</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2220671.6058792099</v>
+      </c>
+      <c r="P31" s="4">
+        <v>2331870.3711888501</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>2448629.0788436802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4">
+        <v>386640280.18927503</v>
+      </c>
+      <c r="D32" s="4">
+        <v>150749589.790948</v>
+      </c>
+      <c r="E32" s="4">
+        <v>158287022.726403</v>
+      </c>
+      <c r="F32" s="4">
+        <v>166201346.03038299</v>
+      </c>
+      <c r="G32" s="4">
+        <v>174511407.25080401</v>
+      </c>
+      <c r="H32" s="4">
+        <v>183235994.82356</v>
+      </c>
+      <c r="I32" s="4">
+        <v>192397795.05586499</v>
+      </c>
+      <c r="J32" s="4">
+        <v>202017768.44117001</v>
+      </c>
+      <c r="K32" s="4">
+        <v>212118641.13018301</v>
+      </c>
+      <c r="L32" s="4">
+        <v>222724666.87176901</v>
+      </c>
+      <c r="M32" s="4">
+        <v>476930191.69087899</v>
+      </c>
+      <c r="N32" s="4">
+        <v>245554137.23234299</v>
+      </c>
+      <c r="O32" s="4">
+        <v>257831937.737546</v>
+      </c>
+      <c r="P32" s="4">
+        <v>270723628.30987501</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>284259903.39208901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>45150898.102779798</v>
+      </c>
+      <c r="D33" s="4">
+        <v>35986756.510689802</v>
+      </c>
+      <c r="E33" s="4">
+        <v>37786254.328755297</v>
+      </c>
+      <c r="F33" s="4">
+        <v>39675748.161922902</v>
+      </c>
+      <c r="G33" s="4">
+        <v>41659743.756079301</v>
+      </c>
+      <c r="H33" s="4">
+        <v>43742947.342172101</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45931089.283867098</v>
+      </c>
+      <c r="J33" s="4">
+        <v>48228743.817620702</v>
+      </c>
+      <c r="K33" s="4">
+        <v>50641142.953559302</v>
+      </c>
+      <c r="L33" s="4">
+        <v>53174311.955190398</v>
+      </c>
+      <c r="M33" s="4">
+        <v>66712088.438733198</v>
+      </c>
+      <c r="N33" s="4">
+        <v>58626958.219616801</v>
+      </c>
+      <c r="O33" s="4">
+        <v>61559417.975224398</v>
+      </c>
+      <c r="P33" s="4">
+        <v>64638500.7257021</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>67871537.613221005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4">
+        <v>250278006.69959399</v>
+      </c>
+      <c r="D34" s="4">
+        <v>218613480.86548999</v>
+      </c>
+      <c r="E34" s="4">
+        <v>229544147.047975</v>
+      </c>
+      <c r="F34" s="4">
+        <v>241021466.804355</v>
+      </c>
+      <c r="G34" s="4">
+        <v>253072814.47865501</v>
+      </c>
+      <c r="H34" s="4">
+        <v>265724818.60764399</v>
+      </c>
+      <c r="I34" s="4">
+        <v>279012821.08232498</v>
+      </c>
+      <c r="J34" s="4">
+        <v>292965860.90147799</v>
+      </c>
+      <c r="K34" s="4">
+        <v>307615685.245125</v>
+      </c>
+      <c r="L34" s="4">
+        <v>322998936.63510299</v>
+      </c>
+      <c r="M34" s="4">
+        <v>381226034.739573</v>
+      </c>
+      <c r="N34" s="4">
+        <v>356111385.33316803</v>
+      </c>
+      <c r="O34" s="4">
+        <v>373919421.74979198</v>
+      </c>
+      <c r="P34" s="4">
+        <v>392617860.03866601</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>412251220.18655199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1212126.2166297201</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1085114.4826245401</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1139370.0669291201</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1196338.91315923</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1256156.8258221</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1318955.6519828599</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1384911.51807796</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1454167.6184758299</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1526883.3060853099</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1603238.2691078801</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1862094.6955225701</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1767592.32199215</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1855982.73407</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1948792.66973141</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>2046243.09926516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4">
+        <v>142670274.04131401</v>
+      </c>
+      <c r="D36" s="4">
+        <v>80634077.604037806</v>
+      </c>
+      <c r="E36" s="4">
+        <v>84665774.408072501</v>
+      </c>
+      <c r="F36" s="4">
+        <v>88899076.556428596</v>
+      </c>
+      <c r="G36" s="4">
+        <v>93344069.263912305</v>
+      </c>
+      <c r="H36" s="4">
+        <v>98010756.701640502</v>
+      </c>
+      <c r="I36" s="4">
+        <v>102911631.104766</v>
+      </c>
+      <c r="J36" s="4">
+        <v>108057647.891919</v>
+      </c>
+      <c r="K36" s="4">
+        <v>113460839.55433001</v>
+      </c>
+      <c r="L36" s="4">
+        <v>119134328.06160501</v>
+      </c>
+      <c r="M36" s="4">
+        <v>190967398.70478201</v>
+      </c>
+      <c r="N36" s="4">
+        <v>131346512.07196499</v>
+      </c>
+      <c r="O36" s="4">
+        <v>137914284.21741301</v>
+      </c>
+      <c r="P36" s="4">
+        <v>144810444.978587</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>152051413.77470899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="4">
+        <v>298646.81300957903</v>
+      </c>
+      <c r="D37" s="4">
+        <v>234623.48272220301</v>
+      </c>
+      <c r="E37" s="4">
+        <v>246354.95119357199</v>
+      </c>
+      <c r="F37" s="4">
+        <v>258673.13885928999</v>
+      </c>
+      <c r="G37" s="4">
+        <v>271607.44230465801</v>
+      </c>
+      <c r="H37" s="4">
+        <v>285188.65764613397</v>
+      </c>
+      <c r="I37" s="4">
+        <v>299452.40893492301</v>
+      </c>
+      <c r="J37" s="4">
+        <v>314430.15193838399</v>
+      </c>
+      <c r="K37" s="4">
+        <v>330155.66941294901</v>
+      </c>
+      <c r="L37" s="4">
+        <v>346668.66163165402</v>
+      </c>
+      <c r="M37" s="4">
+        <v>439203.462347953</v>
+      </c>
+      <c r="N37" s="4">
+        <v>382212.87389036</v>
+      </c>
+      <c r="O37" s="4">
+        <v>401328.72317679401</v>
+      </c>
+      <c r="P37" s="4">
+        <v>421400.36674219399</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>442475.59227799799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1755.1008487752399</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1381.47459955354</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1450.74804260767</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1523.4861535023499</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1599.86440968955</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1680.2724008110899</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1764.7349488443101</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1853.4287143838401</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1946.5510233467801</v>
+      </c>
+      <c r="L38" s="4">
+        <v>2044.33356512712</v>
+      </c>
+      <c r="M38" s="4">
+        <v>2586.60857973765</v>
+      </c>
+      <c r="N38" s="4">
+        <v>2254.8163972458901</v>
+      </c>
+      <c r="O38" s="4">
+        <v>2368.0144771601199</v>
+      </c>
+      <c r="P38" s="4">
+        <v>2486.86951087938</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>2611.6691116098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9762429.6159283891</v>
+      </c>
+      <c r="D39" s="4">
+        <v>9387194.7501231506</v>
+      </c>
+      <c r="E39" s="4">
+        <v>9856547.1254914608</v>
+      </c>
+      <c r="F39" s="4">
+        <v>10349371.6469265</v>
+      </c>
+      <c r="G39" s="4">
+        <v>10866842.833414501</v>
+      </c>
+      <c r="H39" s="4">
+        <v>11410010.917490199</v>
+      </c>
+      <c r="I39" s="4">
+        <v>11980552.6692382</v>
+      </c>
+      <c r="J39" s="4">
+        <v>12579642.416223699</v>
+      </c>
+      <c r="K39" s="4">
+        <v>13208660.843602501</v>
+      </c>
+      <c r="L39" s="4">
+        <v>13869158.465911999</v>
+      </c>
+      <c r="M39" s="4">
+        <v>15384918.0909237</v>
+      </c>
+      <c r="N39" s="4">
+        <v>15290879.593661699</v>
+      </c>
+      <c r="O39" s="4">
+        <v>16055488.151776001</v>
+      </c>
+      <c r="P39" s="4">
+        <v>16858327.1384455</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>17701308.074282601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4272691.3433739301</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3583828.59621683</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3763013.8258457198</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3951163.1820120402</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4148725.9805529299</v>
+      </c>
+      <c r="H40" s="4">
+        <v>4355984.8722418398</v>
+      </c>
+      <c r="I40" s="4">
+        <v>4573819.8817165801</v>
+      </c>
+      <c r="J40" s="4">
+        <v>4802569.7346415296</v>
+      </c>
+      <c r="K40" s="4">
+        <v>5042727.9426913597</v>
+      </c>
+      <c r="L40" s="4">
+        <v>5294925.8713282803</v>
+      </c>
+      <c r="M40" s="4">
+        <v>6419249.0415035803</v>
+      </c>
+      <c r="N40" s="4">
+        <v>5837781.9053541096</v>
+      </c>
+      <c r="O40" s="4">
+        <v>6129732.5279862201</v>
+      </c>
+      <c r="P40" s="4">
+        <v>6436280.6868824204</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>6758156.2491245102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <v>8031958.8504516501</v>
+      </c>
+      <c r="D41" s="4">
+        <v>6974694.3988972297</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7323428.1060092598</v>
+      </c>
+      <c r="F41" s="4">
+        <v>7689602.4760766802</v>
+      </c>
+      <c r="G41" s="4">
+        <v>8074090.64840871</v>
+      </c>
+      <c r="H41" s="4">
+        <v>8477721.0814261008</v>
+      </c>
+      <c r="I41" s="4">
+        <v>8901681.3851142898</v>
+      </c>
+      <c r="J41" s="4">
+        <v>9346859.5216897801</v>
+      </c>
+      <c r="K41" s="4">
+        <v>9814270.6738862302</v>
+      </c>
+      <c r="L41" s="4">
+        <v>10305080.489236301</v>
+      </c>
+      <c r="M41" s="4">
+        <v>12209822.588497801</v>
+      </c>
+      <c r="N41" s="4">
+        <v>11361548.619940899</v>
+      </c>
+      <c r="O41" s="4">
+        <v>11929722.333642701</v>
+      </c>
+      <c r="P41" s="4">
+        <v>12526304.7350161</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>13152716.2540241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4">
+        <v>34942001.389147602</v>
+      </c>
+      <c r="D42" s="4">
+        <v>35286791.901181802</v>
+      </c>
+      <c r="E42" s="4">
+        <v>37051152.637318097</v>
+      </c>
+      <c r="F42" s="4">
+        <v>38903753.582155101</v>
+      </c>
+      <c r="G42" s="4">
+        <v>40849017.717302002</v>
+      </c>
+      <c r="H42" s="4">
+        <v>42891691.318494201</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45036697.611100897</v>
+      </c>
+      <c r="J42" s="4">
+        <v>47289086.9518134</v>
+      </c>
+      <c r="K42" s="4">
+        <v>49653902.068991497</v>
+      </c>
+      <c r="L42" s="4">
+        <v>52137164.790900901</v>
+      </c>
+      <c r="M42" s="4">
+        <v>56080143.696112901</v>
+      </c>
+      <c r="N42" s="4">
+        <v>57482387.824593604</v>
+      </c>
+      <c r="O42" s="4">
+        <v>60357074.828787297</v>
+      </c>
+      <c r="P42" s="4">
+        <v>63375496.176199302</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>66544838.608384497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43387976.942196302</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44041626.508990303</v>
+      </c>
+      <c r="E43" s="4">
+        <v>46243532.915693</v>
+      </c>
+      <c r="F43" s="4">
+        <v>48555595.532825403</v>
+      </c>
+      <c r="G43" s="4">
+        <v>50983326.346940704</v>
+      </c>
+      <c r="H43" s="4">
+        <v>53528907.946030699</v>
+      </c>
+      <c r="I43" s="4">
+        <v>56205730.185081199</v>
+      </c>
+      <c r="J43" s="4">
+        <v>59016636.810948797</v>
+      </c>
+      <c r="K43" s="4">
+        <v>61967825.601606898</v>
+      </c>
+      <c r="L43" s="4">
+        <v>65066868.771838799</v>
+      </c>
+      <c r="M43" s="4">
+        <v>69764268.253872603</v>
+      </c>
+      <c r="N43" s="4">
+        <v>71737559.212539807</v>
+      </c>
+      <c r="O43" s="4">
+        <v>75325089.066170305</v>
+      </c>
+      <c r="P43" s="4">
+        <v>79091995.418874204</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>83047247.083012596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4">
+        <v>35156344.173188202</v>
+      </c>
+      <c r="D44" s="4">
+        <v>33423774.574202601</v>
+      </c>
+      <c r="E44" s="4">
+        <v>35094864.062590703</v>
+      </c>
+      <c r="F44" s="4">
+        <v>36849552.225696802</v>
+      </c>
+      <c r="G44" s="4">
+        <v>38692027.704062499</v>
+      </c>
+      <c r="H44" s="4">
+        <v>40624596.645660102</v>
+      </c>
+      <c r="I44" s="4">
+        <v>42655919.884466901</v>
+      </c>
+      <c r="J44" s="4">
+        <v>44789012.437468402</v>
+      </c>
+      <c r="K44" s="4">
+        <v>47028509.658800498</v>
+      </c>
+      <c r="L44" s="4">
+        <v>49380255.730016902</v>
+      </c>
+      <c r="M44" s="4">
+        <v>55173672.502406798</v>
+      </c>
+      <c r="N44" s="4">
+        <v>54442389.144344203</v>
+      </c>
+      <c r="O44" s="4">
+        <v>57164829.183875903</v>
+      </c>
+      <c r="P44" s="4">
+        <v>60023391.227577202</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>63024881.373812601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3678650.8387311501</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3525735.0010635098</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3702021.2406492201</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3887124.3543109102</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4081486.0074298098</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4285496.7440761998</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4499786.7913519302</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4724804.6388078397</v>
+      </c>
+      <c r="K45" s="4">
+        <v>4961055.4659240302</v>
+      </c>
+      <c r="L45" s="4">
+        <v>5209138.1926781703</v>
+      </c>
+      <c r="M45" s="4">
+        <v>5790432.5481221201</v>
+      </c>
+      <c r="N45" s="4">
+        <v>5743136.2452827804</v>
+      </c>
+      <c r="O45" s="4">
+        <v>6030323.0128346598</v>
+      </c>
+      <c r="P45" s="4">
+        <v>6331869.1078168396</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>6648492.5166575201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5863088.7534799501</v>
+      </c>
+      <c r="D46" s="4">
+        <v>5242248.7821643297</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5504371.9403814301</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5779604.0468018204</v>
+      </c>
+      <c r="G46" s="4">
+        <v>6068601.66010796</v>
+      </c>
+      <c r="H46" s="4">
+        <v>6372087.9993144302</v>
+      </c>
+      <c r="I46" s="4">
+        <v>6690807.5495895697</v>
+      </c>
+      <c r="J46" s="4">
+        <v>7025478.5569426501</v>
+      </c>
+      <c r="K46" s="4">
+        <v>7376861.4483377598</v>
+      </c>
+      <c r="L46" s="4">
+        <v>7745836.7542851297</v>
+      </c>
+      <c r="M46" s="4">
+        <v>9003741.9040927999</v>
+      </c>
+      <c r="N46" s="4">
+        <v>8540056.1035431996</v>
+      </c>
+      <c r="O46" s="4">
+        <v>8967191.1454137694</v>
+      </c>
+      <c r="P46" s="4">
+        <v>9415682.9398903903</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>9886599.3203595504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4">
+        <v>752171.21379285306</v>
+      </c>
+      <c r="D47" s="4">
+        <v>580177.109338579</v>
+      </c>
+      <c r="E47" s="4">
+        <v>609192.91007780505</v>
+      </c>
+      <c r="F47" s="4">
+        <v>639660.08919354097</v>
+      </c>
+      <c r="G47" s="4">
+        <v>671651.40993651003</v>
+      </c>
+      <c r="H47" s="4">
+        <v>705274.604389527</v>
+      </c>
+      <c r="I47" s="4">
+        <v>740596.16526520404</v>
+      </c>
+      <c r="J47" s="4">
+        <v>777686.87949282199</v>
+      </c>
+      <c r="K47" s="4">
+        <v>816627.95462418103</v>
+      </c>
+      <c r="L47" s="4">
+        <v>857520.58742279501</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1100086.0617209601</v>
+      </c>
+      <c r="N47" s="4">
+        <v>945541.99189542001</v>
+      </c>
+      <c r="O47" s="4">
+        <v>992880.33193916699</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1042585.58535646</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>1094776.1054777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4">
+        <v>15640669.135820201</v>
+      </c>
+      <c r="D48" s="4">
+        <v>15718940.2876579</v>
+      </c>
+      <c r="E48" s="4">
+        <v>16504902.327015201</v>
+      </c>
+      <c r="F48" s="4">
+        <v>17330166.754651401</v>
+      </c>
+      <c r="G48" s="4">
+        <v>18196700.614266399</v>
+      </c>
+      <c r="H48" s="4">
+        <v>19106664.259247899</v>
+      </c>
+      <c r="I48" s="4">
+        <v>20062193.824096601</v>
+      </c>
+      <c r="J48" s="4">
+        <v>21065524.544217799</v>
+      </c>
+      <c r="K48" s="4">
+        <v>22118986.589836702</v>
+      </c>
+      <c r="L48" s="4">
+        <v>23225159.453372698</v>
+      </c>
+      <c r="M48" s="4">
+        <v>25056905.1013689</v>
+      </c>
+      <c r="N48" s="4">
+        <v>25606196.5499564</v>
+      </c>
+      <c r="O48" s="4">
+        <v>26886729.9238679</v>
+      </c>
+      <c r="P48" s="4">
+        <v>28231289.955540098</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>29643077.988328598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8100129.5219275001</v>
+      </c>
+      <c r="D49" s="4">
+        <v>6957600.3900101101</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7305366.4548638603</v>
+      </c>
+      <c r="F49" s="4">
+        <v>7670555.0858741496</v>
+      </c>
+      <c r="G49" s="4">
+        <v>8054040.81412852</v>
+      </c>
+      <c r="H49" s="4">
+        <v>8454628.3718125094</v>
+      </c>
+      <c r="I49" s="4">
+        <v>8877330.1750849392</v>
+      </c>
+      <c r="J49" s="4">
+        <v>9321308.9690134209</v>
+      </c>
+      <c r="K49" s="4">
+        <v>9787327.4302380793</v>
+      </c>
+      <c r="L49" s="4">
+        <v>10276824.147833999</v>
+      </c>
+      <c r="M49" s="4">
+        <v>12264530.6135574</v>
+      </c>
+      <c r="N49" s="4">
+        <v>11330465.8219081</v>
+      </c>
+      <c r="O49" s="4">
+        <v>11897119.447665</v>
+      </c>
+      <c r="P49" s="4">
+        <v>12492105.762871699</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>13116841.3938621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4">
+        <v>39036993.635425597</v>
+      </c>
+      <c r="D50" s="4">
+        <v>40367376.138907097</v>
+      </c>
+      <c r="E50" s="4">
+        <v>42381999.368430302</v>
+      </c>
+      <c r="F50" s="4">
+        <v>44498277.490117103</v>
+      </c>
+      <c r="G50" s="4">
+        <v>46721346.362763703</v>
+      </c>
+      <c r="H50" s="4">
+        <v>48991540.122344702</v>
+      </c>
+      <c r="I50" s="4">
+        <v>51436630.207822599</v>
+      </c>
+      <c r="J50" s="4">
+        <v>54007618.131110899</v>
+      </c>
+      <c r="K50" s="4">
+        <v>56703266.563592099</v>
+      </c>
+      <c r="L50" s="4">
+        <v>59538066.798849799</v>
+      </c>
+      <c r="M50" s="4">
+        <v>63102913.324582003</v>
+      </c>
+      <c r="N50" s="4">
+        <v>65639974.2938077</v>
+      </c>
+      <c r="O50" s="4">
+        <v>68921609.916274399</v>
+      </c>
+      <c r="P50" s="4">
+        <v>72367327.315920204</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>75985330.575464994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4">
+        <v>40648162.333258003</v>
+      </c>
+      <c r="D51" s="4">
+        <v>42497474.369655497</v>
+      </c>
+      <c r="E51" s="4">
+        <v>44622345.363016799</v>
+      </c>
+      <c r="F51" s="4">
+        <v>46853461.288878001</v>
+      </c>
+      <c r="G51" s="4">
+        <v>49196134.727829002</v>
+      </c>
+      <c r="H51" s="4">
+        <v>51655888.856836103</v>
+      </c>
+      <c r="I51" s="4">
+        <v>54238689.481637001</v>
+      </c>
+      <c r="J51" s="4">
+        <v>56950636.811319299</v>
+      </c>
+      <c r="K51" s="4">
+        <v>59798173.020192802</v>
+      </c>
+      <c r="L51" s="4">
+        <v>62788095.292029701</v>
+      </c>
+      <c r="M51" s="4">
+        <v>66101888.290272199</v>
+      </c>
+      <c r="N51" s="4">
+        <v>69223903.001284897</v>
+      </c>
+      <c r="O51" s="4">
+        <v>72685111.721903101</v>
+      </c>
+      <c r="P51" s="4">
+        <v>76319380.965669006</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>80135363.611330897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4">
+        <v>11210413.2438238</v>
+      </c>
+      <c r="D52" s="4">
+        <v>11674459.535049099</v>
+      </c>
+      <c r="E52" s="4">
+        <v>12257116.635051301</v>
+      </c>
+      <c r="F52" s="4">
+        <v>12869648.209180299</v>
+      </c>
+      <c r="G52" s="4">
+        <v>13513944.2506357</v>
+      </c>
+      <c r="H52" s="4">
+        <v>14181569.941826601</v>
+      </c>
+      <c r="I52" s="4">
+        <v>14885349.4302502</v>
+      </c>
+      <c r="J52" s="4">
+        <v>15628895.488267399</v>
+      </c>
+      <c r="K52" s="4">
+        <v>16402834.6551884</v>
+      </c>
+      <c r="L52" s="4">
+        <v>17222699.956394602</v>
+      </c>
+      <c r="M52" s="4">
+        <v>18174423.7500103</v>
+      </c>
+      <c r="N52" s="4">
+        <v>18987460.011122301</v>
+      </c>
+      <c r="O52" s="4">
+        <v>19936556.578361802</v>
+      </c>
+      <c r="P52" s="4">
+        <v>20933107.974573001</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>21979486.9374112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4">
+        <v>29673233.503762498</v>
+      </c>
+      <c r="D53" s="4">
+        <v>30261212.682893101</v>
+      </c>
+      <c r="E53" s="4">
+        <v>31789372.658594102</v>
+      </c>
+      <c r="F53" s="4">
+        <v>33393947.984853499</v>
+      </c>
+      <c r="G53" s="4">
+        <v>35078761.211558297</v>
+      </c>
+      <c r="H53" s="4">
+        <v>36984901.393822797</v>
+      </c>
+      <c r="I53" s="4">
+        <v>38986659.673985302</v>
+      </c>
+      <c r="J53" s="4">
+        <v>41088541.196266301</v>
+      </c>
+      <c r="K53" s="4">
+        <v>43295471.837999098</v>
+      </c>
+      <c r="L53" s="4">
+        <v>45612798.014734201</v>
+      </c>
+      <c r="M53" s="4">
+        <v>48913401.775840603</v>
+      </c>
+      <c r="N53" s="4">
+        <v>50600842.613981798</v>
+      </c>
+      <c r="O53" s="4">
+        <v>53283437.326030999</v>
+      </c>
+      <c r="P53" s="4">
+        <v>56100161.780093998</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>59057722.461991698</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="4">
+        <v>16511.857334997399</v>
+      </c>
+      <c r="D54" s="4">
+        <v>17337.451041191802</v>
+      </c>
+      <c r="E54" s="4">
+        <v>18204.323033621698</v>
+      </c>
+      <c r="F54" s="4">
+        <v>19114.5383458582</v>
+      </c>
+      <c r="G54" s="4">
+        <v>20070.262744817501</v>
+      </c>
+      <c r="H54" s="4">
+        <v>21073.779519651402</v>
+      </c>
+      <c r="I54" s="4">
+        <v>22127.467096559802</v>
+      </c>
+      <c r="J54" s="4">
+        <v>23233.838212868999</v>
+      </c>
+      <c r="K54" s="4">
+        <v>24395.5343207351</v>
+      </c>
+      <c r="L54" s="4">
+        <v>25615.3087982531</v>
+      </c>
+      <c r="M54" s="4">
+        <v>26896.0717198321</v>
+      </c>
+      <c r="N54" s="4">
+        <v>28240.878663601899</v>
+      </c>
+      <c r="O54" s="4">
+        <v>29652.9195188187</v>
+      </c>
+      <c r="P54" s="4">
+        <v>31135.568852537799</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>32692.346735535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="8">
+        <f>SUM(C3:C54)</f>
+        <v>2278605801.7028608</v>
+      </c>
+      <c r="D55" s="8">
+        <f t="shared" ref="D55:Q55" si="0">SUM(D3:D54)</f>
+        <v>1681474281.6265216</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>1765567540.0392478</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="0"/>
+        <v>1853868008.8847296</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="0"/>
+        <v>1946586785.4428742</v>
+      </c>
+      <c r="H55" s="8">
+        <f t="shared" si="0"/>
+        <v>2043990792.0044935</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="0"/>
+        <v>2146356614.9789779</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="0"/>
+        <v>2253853536.6005025</v>
+      </c>
+      <c r="K55" s="8">
+        <f t="shared" si="0"/>
+        <v>2366708463.8942761</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="0"/>
+        <v>2485224401.952116</v>
+      </c>
+      <c r="M55" s="8">
+        <f t="shared" si="0"/>
+        <v>3286886474.4183178</v>
+      </c>
+      <c r="N55" s="8">
+        <f t="shared" si="0"/>
+        <v>2740329958.7543855</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="0"/>
+        <v>2877526971.4045248</v>
+      </c>
+      <c r="P55" s="8">
+        <f t="shared" si="0"/>
+        <v>3021583834.9613962</v>
+      </c>
+      <c r="Q55" s="8">
+        <f t="shared" si="0"/>
+        <v>3172843541.5791802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2017</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2020</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2021</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2022</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2023</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2024</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2025</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2026</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2027</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2028</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2029</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>242511.32009923601</v>
+      </c>
+      <c r="D61" s="4">
+        <v>244955.36936901999</v>
+      </c>
+      <c r="E61" s="4">
+        <v>257203.07839547499</v>
+      </c>
+      <c r="F61" s="4">
+        <v>270063.32378015202</v>
+      </c>
+      <c r="G61" s="4">
+        <v>283566.80668132298</v>
+      </c>
+      <c r="H61" s="4">
+        <v>297744.33062741603</v>
+      </c>
+      <c r="I61" s="4">
+        <v>312632.13176440197</v>
+      </c>
+      <c r="J61" s="4">
+        <v>328265.22508528299</v>
+      </c>
+      <c r="K61" s="4">
+        <v>344678.65782553202</v>
+      </c>
+      <c r="L61" s="4">
+        <v>361914.16700392001</v>
+      </c>
+      <c r="M61" s="4">
+        <v>389231.88717911899</v>
+      </c>
+      <c r="N61" s="4">
+        <v>399013.60054415697</v>
+      </c>
+      <c r="O61" s="4">
+        <v>418965.85683565802</v>
+      </c>
+      <c r="P61" s="4">
+        <v>439915.72593699099</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>461913.08853218099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>197774.180136729</v>
+      </c>
+      <c r="D62" s="4">
+        <v>206295.60086738301</v>
+      </c>
+      <c r="E62" s="4">
+        <v>216610.65035943399</v>
+      </c>
+      <c r="F62" s="4">
+        <v>227441.46405627101</v>
+      </c>
+      <c r="G62" s="4">
+        <v>238813.83547200999</v>
+      </c>
+      <c r="H62" s="4">
+        <v>250757.22781867799</v>
+      </c>
+      <c r="I62" s="4">
+        <v>263297.92298093298</v>
+      </c>
+      <c r="J62" s="4">
+        <v>276465.72140258999</v>
+      </c>
+      <c r="K62" s="4">
+        <v>290291.81054342899</v>
+      </c>
+      <c r="L62" s="4">
+        <v>304809.31017410802</v>
+      </c>
+      <c r="M62" s="4">
+        <v>321355.12080615299</v>
+      </c>
+      <c r="N62" s="4">
+        <v>336058.22825591202</v>
+      </c>
+      <c r="O62" s="4">
+        <v>352864.04882153298</v>
+      </c>
+      <c r="P62" s="4">
+        <v>370510.16037696903</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>389038.57756106002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>78972.017794134794</v>
+      </c>
+      <c r="D63" s="4">
+        <v>77727.192512561407</v>
+      </c>
+      <c r="E63" s="4">
+        <v>81613.572746610196</v>
+      </c>
+      <c r="F63" s="4">
+        <v>85694.2875826214</v>
+      </c>
+      <c r="G63" s="4">
+        <v>89979.060227604597</v>
+      </c>
+      <c r="H63" s="4">
+        <v>94478.114822569798</v>
+      </c>
+      <c r="I63" s="4">
+        <v>99202.434354865298</v>
+      </c>
+      <c r="J63" s="4">
+        <v>104163.057517611</v>
+      </c>
+      <c r="K63" s="4">
+        <v>109371.58860302401</v>
+      </c>
+      <c r="L63" s="4">
+        <v>114840.67848368399</v>
+      </c>
+      <c r="M63" s="4">
+        <v>125529.36264886901</v>
+      </c>
+      <c r="N63" s="4">
+        <v>126612.894492529</v>
+      </c>
+      <c r="O63" s="4">
+        <v>132944.04969930701</v>
+      </c>
+      <c r="P63" s="4">
+        <v>139591.76262559401</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>146571.86120651601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3938.61257856869</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4057.9113146351801</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4260.80081694414</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4473.84003394925</v>
+      </c>
+      <c r="G64" s="4">
+        <v>4697.5392063132804</v>
+      </c>
+      <c r="H64" s="4">
+        <v>4932.3653824572302</v>
+      </c>
+      <c r="I64" s="4">
+        <v>5178.9584032375697</v>
+      </c>
+      <c r="J64" s="4">
+        <v>5437.9132058674604</v>
+      </c>
+      <c r="K64" s="4">
+        <v>5709.7682866905798</v>
+      </c>
+      <c r="L64" s="4">
+        <v>5995.2667197239698</v>
+      </c>
+      <c r="M64" s="4">
+        <v>6368.9694359550103</v>
+      </c>
+      <c r="N64" s="4">
+        <v>6609.8020962400597</v>
+      </c>
+      <c r="O64" s="4">
+        <v>6940.3022198400904</v>
+      </c>
+      <c r="P64" s="4">
+        <v>7287.3273504721301</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>7651.7037369222899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4">
+        <v>594.962736717741</v>
+      </c>
+      <c r="D65" s="4">
+        <v>607.47387328819104</v>
+      </c>
+      <c r="E65" s="4">
+        <v>640.30384615975902</v>
+      </c>
+      <c r="F65" s="4">
+        <v>674.77578472885295</v>
+      </c>
+      <c r="G65" s="4">
+        <v>710.97202067236196</v>
+      </c>
+      <c r="H65" s="4">
+        <v>748.97514965551295</v>
+      </c>
+      <c r="I65" s="4">
+        <v>788.88165546177697</v>
+      </c>
+      <c r="J65" s="4">
+        <v>830.78630912250298</v>
+      </c>
+      <c r="K65" s="4">
+        <v>874.78205632456297</v>
+      </c>
+      <c r="L65" s="4">
+        <v>920.98200501885594</v>
+      </c>
+      <c r="M65" s="4">
+        <v>988.24745727825496</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1020.42739690823</v>
+      </c>
+      <c r="O65" s="4">
+        <v>1073.9096151932799</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1130.06594474297</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>1189.03008828525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>405.14068127546602</v>
+      </c>
+      <c r="D66" s="4">
+        <v>374.375449978022</v>
+      </c>
+      <c r="E66" s="4">
+        <v>393.094748466976</v>
+      </c>
+      <c r="F66" s="4">
+        <v>412.75019792769899</v>
+      </c>
+      <c r="G66" s="4">
+        <v>433.388644572396</v>
+      </c>
+      <c r="H66" s="4">
+        <v>455.05140898592703</v>
+      </c>
+      <c r="I66" s="4">
+        <v>477.80610930167597</v>
+      </c>
+      <c r="J66" s="4">
+        <v>501.69940535805802</v>
+      </c>
+      <c r="K66" s="4">
+        <v>526.78630280700702</v>
+      </c>
+      <c r="L66" s="4">
+        <v>553.12870797818698</v>
+      </c>
+      <c r="M66" s="4">
+        <v>629.38137345739403</v>
+      </c>
+      <c r="N66" s="4">
+        <v>609.83073824382802</v>
+      </c>
+      <c r="O66" s="4">
+        <v>640.32536790812605</v>
+      </c>
+      <c r="P66" s="4">
+        <v>672.34472631423398</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>705.96505475596905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
+        <v>4218.5906795271703</v>
+      </c>
+      <c r="D67" s="4">
+        <v>4368.2803639092499</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4586.7411319860103</v>
+      </c>
+      <c r="F67" s="4">
+        <v>4816.1340167563303</v>
+      </c>
+      <c r="G67" s="4">
+        <v>5057.0104359380503</v>
+      </c>
+      <c r="H67" s="4">
+        <v>5309.8722606684696</v>
+      </c>
+      <c r="I67" s="4">
+        <v>5575.4155708915296</v>
+      </c>
+      <c r="J67" s="4">
+        <v>5854.2919126553597</v>
+      </c>
+      <c r="K67" s="4">
+        <v>6147.0293951882104</v>
+      </c>
+      <c r="L67" s="4">
+        <v>6454.4918691934399</v>
+      </c>
+      <c r="M67" s="4">
+        <v>6835.6956580871101</v>
+      </c>
+      <c r="N67" s="4">
+        <v>7116.3048427073099</v>
+      </c>
+      <c r="O67" s="4">
+        <v>7472.2310866646603</v>
+      </c>
+      <c r="P67" s="4">
+        <v>7845.9536449665602</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>8238.3623304312405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>838046.85784385703</v>
+      </c>
+      <c r="D68" s="4">
+        <v>281320.32213239098</v>
+      </c>
+      <c r="E68" s="4">
+        <v>295386.39846574102</v>
+      </c>
+      <c r="F68" s="4">
+        <v>310155.87861075997</v>
+      </c>
+      <c r="G68" s="4">
+        <v>325663.96420879598</v>
+      </c>
+      <c r="H68" s="4">
+        <v>341946.26483460498</v>
+      </c>
+      <c r="I68" s="4">
+        <v>359045.98073655099</v>
+      </c>
+      <c r="J68" s="4">
+        <v>377001.19622727501</v>
+      </c>
+      <c r="K68" s="4">
+        <v>395853.48737066099</v>
+      </c>
+      <c r="L68" s="4">
+        <v>415649.13450442598</v>
+      </c>
+      <c r="M68" s="4">
+        <v>1006557.36294658</v>
+      </c>
+      <c r="N68" s="4">
+        <v>458259.26488577202</v>
+      </c>
+      <c r="O68" s="4">
+        <v>481175.20086973999</v>
+      </c>
+      <c r="P68" s="4">
+        <v>505236.93364730902</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>530501.75304805895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="4">
+        <v>18906.829798476901</v>
+      </c>
+      <c r="D69" s="4">
+        <v>14087.5352226838</v>
+      </c>
+      <c r="E69" s="4">
+        <v>14791.9497177393</v>
+      </c>
+      <c r="F69" s="4">
+        <v>15531.598604678</v>
+      </c>
+      <c r="G69" s="4">
+        <v>16308.249297263699</v>
+      </c>
+      <c r="H69" s="4">
+        <v>17123.951441486399</v>
+      </c>
+      <c r="I69" s="4">
+        <v>17980.6607199682</v>
+      </c>
+      <c r="J69" s="4">
+        <v>18880.282926309301</v>
+      </c>
+      <c r="K69" s="4">
+        <v>19824.775923155499</v>
+      </c>
+      <c r="L69" s="4">
+        <v>20816.611762955101</v>
+      </c>
+      <c r="M69" s="4">
+        <v>27348.204968009599</v>
+      </c>
+      <c r="N69" s="4">
+        <v>22951.538225501699</v>
+      </c>
+      <c r="O69" s="4">
+        <v>24099.7121737255</v>
+      </c>
+      <c r="P69" s="4">
+        <v>25305.294776046201</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>26571.156515185099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4">
+        <v>632350.92997091601</v>
+      </c>
+      <c r="D70" s="4">
+        <v>360584.19668636902</v>
+      </c>
+      <c r="E70" s="4">
+        <v>378613.38581321703</v>
+      </c>
+      <c r="F70" s="4">
+        <v>397544.098952448</v>
+      </c>
+      <c r="G70" s="4">
+        <v>417421.429938143</v>
+      </c>
+      <c r="H70" s="4">
+        <v>438291.01207529299</v>
+      </c>
+      <c r="I70" s="4">
+        <v>460206.52983073401</v>
+      </c>
+      <c r="J70" s="4">
+        <v>483218.14315635402</v>
+      </c>
+      <c r="K70" s="4">
+        <v>507379.92076923198</v>
+      </c>
+      <c r="L70" s="4">
+        <v>532750.23966633598</v>
+      </c>
+      <c r="M70" s="4">
+        <v>848326.46412557899</v>
+      </c>
+      <c r="N70" s="4">
+        <v>587359.851382119</v>
+      </c>
+      <c r="O70" s="4">
+        <v>616729.16693560896</v>
+      </c>
+      <c r="P70" s="4">
+        <v>647566.94825813395</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>679946.61840613303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="4">
+        <v>634689.86457900598</v>
+      </c>
+      <c r="D71" s="4">
+        <v>510158.05336727202</v>
+      </c>
+      <c r="E71" s="4">
+        <v>535665.62271873502</v>
+      </c>
+      <c r="F71" s="4">
+        <v>562448.83802668098</v>
+      </c>
+      <c r="G71" s="4">
+        <v>590571.55703627202</v>
+      </c>
+      <c r="H71" s="4">
+        <v>620092.49514932302</v>
+      </c>
+      <c r="I71" s="4">
+        <v>651099.37523654196</v>
+      </c>
+      <c r="J71" s="4">
+        <v>683657.93455020897</v>
+      </c>
+      <c r="K71" s="4">
+        <v>717842.67494185397</v>
+      </c>
+      <c r="L71" s="4">
+        <v>753738.548442345</v>
+      </c>
+      <c r="M71" s="4">
+        <v>940253.95009640604</v>
+      </c>
+      <c r="N71" s="4">
+        <v>831004.416230464</v>
+      </c>
+      <c r="O71" s="4">
+        <v>872558.37679811602</v>
+      </c>
+      <c r="P71" s="4">
+        <v>916190.03539610805</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>962003.27698043804</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="4">
+        <v>780754.98125984205</v>
+      </c>
+      <c r="D72" s="4">
+        <v>784618.69526469905</v>
+      </c>
+      <c r="E72" s="4">
+        <v>823849.69408068503</v>
+      </c>
+      <c r="F72" s="4">
+        <v>865042.47777543799</v>
+      </c>
+      <c r="G72" s="4">
+        <v>908295.24042866402</v>
+      </c>
+      <c r="H72" s="4">
+        <v>953709.52629466495</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1001398.13631207</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1051472.53151745</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1104048.7094383701</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1159255.7711487999</v>
+      </c>
+      <c r="M72" s="4">
+        <v>1250722.32799208</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1278088.9716006999</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1341998.0462961099</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1409102.5747704401</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>1479562.3298426401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4">
+        <v>34930.057044195499</v>
+      </c>
+      <c r="D73" s="4">
+        <v>35720.650288540099</v>
+      </c>
+      <c r="E73" s="4">
+        <v>37506.742880118902</v>
+      </c>
+      <c r="F73" s="4">
+        <v>39382.145056284498</v>
+      </c>
+      <c r="G73" s="4">
+        <v>41351.323988040502</v>
+      </c>
+      <c r="H73" s="4">
+        <v>43418.8865695563</v>
+      </c>
+      <c r="I73" s="4">
+        <v>45589.969833446601</v>
+      </c>
+      <c r="J73" s="4">
+        <v>47869.633613571503</v>
+      </c>
+      <c r="K73" s="4">
+        <v>50263.244814081198</v>
+      </c>
+      <c r="L73" s="4">
+        <v>52776.575162249697</v>
+      </c>
+      <c r="M73" s="4">
+        <v>56326.019311068703</v>
+      </c>
+      <c r="N73" s="4">
+        <v>58186.5186626125</v>
+      </c>
+      <c r="O73" s="4">
+        <v>61096.012744457097</v>
+      </c>
+      <c r="P73" s="4">
+        <v>64150.981466248501</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>67358.698635952795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2776700.0063949102</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2703943.0312442901</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2839139.5146788699</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2981096.9980148398</v>
+      </c>
+      <c r="G74" s="4">
+        <v>3130153.9037953001</v>
+      </c>
+      <c r="H74" s="4">
+        <v>3286639.9796119002</v>
+      </c>
+      <c r="I74" s="4">
+        <v>3450988.7651989101</v>
+      </c>
+      <c r="J74" s="4">
+        <v>3623561.04441533</v>
+      </c>
+      <c r="K74" s="4">
+        <v>3804753.85174254</v>
+      </c>
+      <c r="L74" s="4">
+        <v>3995015.0486173299</v>
+      </c>
+      <c r="M74" s="4">
+        <v>4396304.8356038798</v>
+      </c>
+      <c r="N74" s="4">
+        <v>4404552.2763354704</v>
+      </c>
+      <c r="O74" s="4">
+        <v>4624803.39447161</v>
+      </c>
+      <c r="P74" s="4">
+        <v>4856067.0681352802</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>5098893.92693095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="4">
+        <v>261496.51303161401</v>
+      </c>
+      <c r="D75" s="4">
+        <v>260292.14800925201</v>
+      </c>
+      <c r="E75" s="4">
+        <v>273306.86221107998</v>
+      </c>
+      <c r="F75" s="4">
+        <v>286972.371917032</v>
+      </c>
+      <c r="G75" s="4">
+        <v>301321.24062267703</v>
+      </c>
+      <c r="H75" s="4">
+        <v>316387.85409048997</v>
+      </c>
+      <c r="I75" s="4">
+        <v>332209.08618037403</v>
+      </c>
+      <c r="J75" s="4">
+        <v>348821.71075751598</v>
+      </c>
+      <c r="K75" s="4">
+        <v>366264.50394046801</v>
+      </c>
+      <c r="L75" s="4">
+        <v>384579.933886713</v>
+      </c>
+      <c r="M75" s="4">
+        <v>417410.46627419803</v>
+      </c>
+      <c r="N75" s="4">
+        <v>424003.89693547197</v>
+      </c>
+      <c r="O75" s="4">
+        <v>445206.29650167603</v>
+      </c>
+      <c r="P75" s="4">
+        <v>467468.81605778303</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>490844.46174111997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="4">
+        <v>156547.19613793999</v>
+      </c>
+      <c r="D76" s="4">
+        <v>138846.74542672001</v>
+      </c>
+      <c r="E76" s="4">
+        <v>145789.138293778</v>
+      </c>
+      <c r="F76" s="4">
+        <v>153078.66646965899</v>
+      </c>
+      <c r="G76" s="4">
+        <v>160732.68949200399</v>
+      </c>
+      <c r="H76" s="4">
+        <v>168768.849873739</v>
+      </c>
+      <c r="I76" s="4">
+        <v>177207.64432494901</v>
+      </c>
+      <c r="J76" s="4">
+        <v>186068.44877839799</v>
+      </c>
+      <c r="K76" s="4">
+        <v>195372.209320105</v>
+      </c>
+      <c r="L76" s="4">
+        <v>205141.25055946299</v>
+      </c>
+      <c r="M76" s="4">
+        <v>239710.997131743</v>
+      </c>
+      <c r="N76" s="4">
+        <v>226169.11165454099</v>
+      </c>
+      <c r="O76" s="4">
+        <v>237477.99788557601</v>
+      </c>
+      <c r="P76" s="4">
+        <v>249352.32851017601</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>261820.375664394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="4">
+        <v>697274.18826080102</v>
+      </c>
+      <c r="D77" s="4">
+        <v>521562.63090497302</v>
+      </c>
+      <c r="E77" s="4">
+        <v>547636.42611034703</v>
+      </c>
+      <c r="F77" s="4">
+        <v>575015.45720507705</v>
+      </c>
+      <c r="G77" s="4">
+        <v>603765.27919174498</v>
+      </c>
+      <c r="H77" s="4">
+        <v>633876.18809180602</v>
+      </c>
+      <c r="I77" s="4">
+        <v>665568.53144458903</v>
+      </c>
+      <c r="J77" s="4">
+        <v>698852.54436019994</v>
+      </c>
+      <c r="K77" s="4">
+        <v>733792.13417134597</v>
+      </c>
+      <c r="L77" s="4">
+        <v>770488.16585740598</v>
+      </c>
+      <c r="M77" s="4">
+        <v>1009562.74227094</v>
+      </c>
+      <c r="N77" s="4">
+        <v>849476.37397262303</v>
+      </c>
+      <c r="O77" s="4">
+        <v>891956.61752969597</v>
+      </c>
+      <c r="P77" s="4">
+        <v>936560.87336930796</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>983395.34186090599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1226409.7417035999</v>
+      </c>
+      <c r="D78" s="4">
+        <v>919093.58170718094</v>
+      </c>
+      <c r="E78" s="4">
+        <v>965057.98436930706</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1013323.4413203601</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1064006.32476121</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1117291.3435957199</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1173276.85128713</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1232078.2170479801</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1293795.7435212201</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1358624.72185329</v>
+      </c>
+      <c r="M78" s="4">
+        <v>1777786.9306280301</v>
+      </c>
+      <c r="N78" s="4">
+        <v>1498169.0976494199</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1573216.7435761299</v>
+      </c>
+      <c r="P78" s="4">
+        <v>1652016.7718984899</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>1734756.8016734</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="4">
+        <v>659159.25706422399</v>
+      </c>
+      <c r="D79" s="4">
+        <v>466030.53015801997</v>
+      </c>
+      <c r="E79" s="4">
+        <v>489331.892227142</v>
+      </c>
+      <c r="F79" s="4">
+        <v>513798.627726137</v>
+      </c>
+      <c r="G79" s="4">
+        <v>539489.08402591804</v>
+      </c>
+      <c r="H79" s="4">
+        <v>566455.245280553</v>
+      </c>
+      <c r="I79" s="4">
+        <v>594781.95751580596</v>
+      </c>
+      <c r="J79" s="4">
+        <v>624526.49522345199</v>
+      </c>
+      <c r="K79" s="4">
+        <v>655756.34144655603</v>
+      </c>
+      <c r="L79" s="4">
+        <v>688549.76733148994</v>
+      </c>
+      <c r="M79" s="4">
+        <v>938303.36492249998</v>
+      </c>
+      <c r="N79" s="4">
+        <v>759137.61668750597</v>
+      </c>
+      <c r="O79" s="4">
+        <v>797100.10634868604</v>
+      </c>
+      <c r="P79" s="4">
+        <v>836960.72059234895</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>878814.36544001696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1008631.81243582</v>
+      </c>
+      <c r="D80" s="4">
+        <v>493179.13074731</v>
+      </c>
+      <c r="E80" s="4">
+        <v>517837.90243146801</v>
+      </c>
+      <c r="F80" s="4">
+        <v>543729.75988150202</v>
+      </c>
+      <c r="G80" s="4">
+        <v>570916.39293265995</v>
+      </c>
+      <c r="H80" s="4">
+        <v>599456.56424038403</v>
+      </c>
+      <c r="I80" s="4">
+        <v>629430.04046775901</v>
+      </c>
+      <c r="J80" s="4">
+        <v>660902.89666507603</v>
+      </c>
+      <c r="K80" s="4">
+        <v>693948.499236334</v>
+      </c>
+      <c r="L80" s="4">
+        <v>728647.35934088903</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1304018.38816867</v>
+      </c>
+      <c r="N80" s="4">
+        <v>803336.65580872004</v>
+      </c>
+      <c r="O80" s="4">
+        <v>843504.92374395998</v>
+      </c>
+      <c r="P80" s="4">
+        <v>885681.60513097502</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>929967.12061729399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4">
+        <v>895967.37749715801</v>
+      </c>
+      <c r="D81" s="4">
+        <v>763732.43009010598</v>
+      </c>
+      <c r="E81" s="4">
+        <v>801919.012232529</v>
+      </c>
+      <c r="F81" s="4">
+        <v>842014.97032118996</v>
+      </c>
+      <c r="G81" s="4">
+        <v>884115.78471012402</v>
+      </c>
+      <c r="H81" s="4">
+        <v>928320.20704911696</v>
+      </c>
+      <c r="I81" s="4">
+        <v>974736.79219835403</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1023474.4334327</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1074648.66667479</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1128381.9274366</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1353404.9718170599</v>
+      </c>
+      <c r="N81" s="4">
+        <v>1244042.77132353</v>
+      </c>
+      <c r="O81" s="4">
+        <v>1306245.73717468</v>
+      </c>
+      <c r="P81" s="4">
+        <v>1371558.85163149</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>1440137.6215406801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="4">
+        <v>5730936.3244862799</v>
+      </c>
+      <c r="D82" s="4">
+        <v>4014927.0476326998</v>
+      </c>
+      <c r="E82" s="4">
+        <v>4215672.2514840905</v>
+      </c>
+      <c r="F82" s="4">
+        <v>4426455.4830163699</v>
+      </c>
+      <c r="G82" s="4">
+        <v>4647778.8497965503</v>
+      </c>
+      <c r="H82" s="4">
+        <v>4880142.0168404803</v>
+      </c>
+      <c r="I82" s="4">
+        <v>5124152.7508019404</v>
+      </c>
+      <c r="J82" s="4">
+        <v>5380367.8131298097</v>
+      </c>
+      <c r="K82" s="4">
+        <v>5649388.7010507602</v>
+      </c>
+      <c r="L82" s="4">
+        <v>5931865.9874546696</v>
+      </c>
+      <c r="M82" s="4">
+        <v>8135662.3212812496</v>
+      </c>
+      <c r="N82" s="4">
+        <v>6539898.3463941403</v>
+      </c>
+      <c r="O82" s="4">
+        <v>6866901.11366178</v>
+      </c>
+      <c r="P82" s="4">
+        <v>7210254.0211267397</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>7570774.5731796604</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="4">
+        <v>4816226.8915286697</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2587355.6263694102</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2716726.5453800801</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2852567.4360468802</v>
+      </c>
+      <c r="G83" s="4">
+        <v>2995202.3093086602</v>
+      </c>
+      <c r="H83" s="4">
+        <v>3144977.8415957498</v>
+      </c>
+      <c r="I83" s="4">
+        <v>3302280.5451321001</v>
+      </c>
+      <c r="J83" s="4">
+        <v>3467456.0119910198</v>
+      </c>
+      <c r="K83" s="4">
+        <v>3640879.8072396</v>
+      </c>
+      <c r="L83" s="4">
+        <v>3822986.05157927</v>
+      </c>
+      <c r="M83" s="4">
+        <v>6366279.2725623697</v>
+      </c>
+      <c r="N83" s="4">
+        <v>4214969.7405042201</v>
+      </c>
+      <c r="O83" s="4">
+        <v>4425780.4820455397</v>
+      </c>
+      <c r="P83" s="4">
+        <v>4647131.7583344299</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>4879550.6006979197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3809130.9582631001</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3509622.07862357</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3685103.2393466602</v>
+      </c>
+      <c r="F84" s="4">
+        <v>3869358.9777538301</v>
+      </c>
+      <c r="G84" s="4">
+        <v>4062828.1847620802</v>
+      </c>
+      <c r="H84" s="4">
+        <v>4265959.7658890598</v>
+      </c>
+      <c r="I84" s="4">
+        <v>4479264.8591700504</v>
+      </c>
+      <c r="J84" s="4">
+        <v>4703237.8798213201</v>
+      </c>
+      <c r="K84" s="4">
+        <v>4938405.98314506</v>
+      </c>
+      <c r="L84" s="4">
+        <v>5185336.3519916097</v>
+      </c>
+      <c r="M84" s="4">
+        <v>5911247.0354098296</v>
+      </c>
+      <c r="N84" s="4">
+        <v>5716853.9719811501</v>
+      </c>
+      <c r="O84" s="4">
+        <v>6002706.7396639697</v>
+      </c>
+      <c r="P84" s="4">
+        <v>6302852.14760812</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>6618004.8236543601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="4">
+        <v>84756.836820032899</v>
+      </c>
+      <c r="D85" s="4">
+        <v>76857.315420182</v>
+      </c>
+      <c r="E85" s="4">
+        <v>80699.777456120501</v>
+      </c>
+      <c r="F85" s="4">
+        <v>84734.468651674804</v>
+      </c>
+      <c r="G85" s="4">
+        <v>88971.007731508696</v>
+      </c>
+      <c r="H85" s="4">
+        <v>93412.335058940094</v>
+      </c>
+      <c r="I85" s="4">
+        <v>98082.600232380602</v>
+      </c>
+      <c r="J85" s="4">
+        <v>102986.802674627</v>
+      </c>
+      <c r="K85" s="4">
+        <v>108135.75566385699</v>
+      </c>
+      <c r="L85" s="4">
+        <v>113542.67122288101</v>
+      </c>
+      <c r="M85" s="4">
+        <v>130778.941699095</v>
+      </c>
+      <c r="N85" s="4">
+        <v>125181.057060823</v>
+      </c>
+      <c r="O85" s="4">
+        <v>131440.237669867</v>
+      </c>
+      <c r="P85" s="4">
+        <v>138012.37735514701</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>144913.12403316601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="4">
+        <v>194273.45202883999</v>
+      </c>
+      <c r="D86" s="4">
+        <v>175463.15478531501</v>
+      </c>
+      <c r="E86" s="4">
+        <v>184237.44054575899</v>
+      </c>
+      <c r="F86" s="4">
+        <v>193450.522707305</v>
+      </c>
+      <c r="G86" s="4">
+        <v>203124.36563662201</v>
+      </c>
+      <c r="H86" s="4">
+        <v>213289.27400040699</v>
+      </c>
+      <c r="I86" s="4">
+        <v>223965.30577033301</v>
+      </c>
+      <c r="J86" s="4">
+        <v>235175.555553835</v>
+      </c>
+      <c r="K86" s="4">
+        <v>246945.767860569</v>
+      </c>
+      <c r="L86" s="4">
+        <v>259305.08688011399</v>
+      </c>
+      <c r="M86" s="4">
+        <v>299449.13154535397</v>
+      </c>
+      <c r="N86" s="4">
+        <v>285908.52099063603</v>
+      </c>
+      <c r="O86" s="4">
+        <v>300215.97759613802</v>
+      </c>
+      <c r="P86" s="4">
+        <v>315238.80697818397</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>331012.77795852098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="4">
+        <v>454201.39086487202</v>
+      </c>
+      <c r="D87" s="4">
+        <v>52016.825420511399</v>
+      </c>
+      <c r="E87" s="4">
+        <v>54617.588876108297</v>
+      </c>
+      <c r="F87" s="4">
+        <v>57348.410542209996</v>
+      </c>
+      <c r="G87" s="4">
+        <v>60215.794519886498</v>
+      </c>
+      <c r="H87" s="4">
+        <v>63225.165383927299</v>
+      </c>
+      <c r="I87" s="4">
+        <v>66386.332407594396</v>
+      </c>
+      <c r="J87" s="4">
+        <v>69705.6369451395</v>
+      </c>
+      <c r="K87" s="4">
+        <v>73190.822045788605</v>
+      </c>
+      <c r="L87" s="4">
+        <v>76850.361485337693</v>
+      </c>
+      <c r="M87" s="4">
+        <v>485354.36093502003</v>
+      </c>
+      <c r="N87" s="4">
+        <v>84727.520152437894</v>
+      </c>
+      <c r="O87" s="4">
+        <v>88963.894529961501</v>
+      </c>
+      <c r="P87" s="4">
+        <v>93412.087597006801</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>98082.690327329503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="4">
+        <v>235369.101184058</v>
+      </c>
+      <c r="D88" s="4">
+        <v>233761.93618590001</v>
+      </c>
+      <c r="E88" s="4">
+        <v>245449.83591709399</v>
+      </c>
+      <c r="F88" s="4">
+        <v>257722.368837744</v>
+      </c>
+      <c r="G88" s="4">
+        <v>270608.89143406501</v>
+      </c>
+      <c r="H88" s="4">
+        <v>284137.91510034603</v>
+      </c>
+      <c r="I88" s="4">
+        <v>298344.69707525399</v>
+      </c>
+      <c r="J88" s="4">
+        <v>313263.27564902097</v>
+      </c>
+      <c r="K88" s="4">
+        <v>328925.63425684901</v>
+      </c>
+      <c r="L88" s="4">
+        <v>345373.40206687798</v>
+      </c>
+      <c r="M88" s="4">
+        <v>375382.05600853602</v>
+      </c>
+      <c r="N88" s="4">
+        <v>380777.22216617101</v>
+      </c>
+      <c r="O88" s="4">
+        <v>399817.56944323197</v>
+      </c>
+      <c r="P88" s="4">
+        <v>419809.933891739</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>440801.91669386602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="4">
+        <v>55862.224758405202</v>
+      </c>
+      <c r="D89" s="4">
+        <v>33935.000396342002</v>
+      </c>
+      <c r="E89" s="4">
+        <v>35632.098648380001</v>
+      </c>
+      <c r="F89" s="4">
+        <v>37414.091793071602</v>
+      </c>
+      <c r="G89" s="4">
+        <v>39285.2400189486</v>
+      </c>
+      <c r="H89" s="4">
+        <v>41252.673653464597</v>
+      </c>
+      <c r="I89" s="4">
+        <v>43319.384802361899</v>
+      </c>
+      <c r="J89" s="4">
+        <v>45489.651457476197</v>
+      </c>
+      <c r="K89" s="4">
+        <v>47768.1253978405</v>
+      </c>
+      <c r="L89" s="4">
+        <v>50160.852057194897</v>
+      </c>
+      <c r="M89" s="4">
+        <v>76216.723764899696</v>
+      </c>
+      <c r="N89" s="4">
+        <v>55311.196200904698</v>
+      </c>
+      <c r="O89" s="4">
+        <v>58081.0764479844</v>
+      </c>
+      <c r="P89" s="4">
+        <v>60989.450640625699</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>64043.243649602999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="4">
+        <v>4313673.9262184501</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1681885.22559264</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1765978.96747689</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1854277.60533047</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1946991.4177513099</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2044330.0238354499</v>
+      </c>
+      <c r="I90" s="4">
+        <v>2146546.5305066402</v>
+      </c>
+      <c r="J90" s="4">
+        <v>2253874.7901043999</v>
+      </c>
+      <c r="K90" s="4">
+        <v>2366568.3540789499</v>
+      </c>
+      <c r="L90" s="4">
+        <v>2484897.8170099398</v>
+      </c>
+      <c r="M90" s="4">
+        <v>5321021.7298522899</v>
+      </c>
+      <c r="N90" s="4">
+        <v>2739601.9854312302</v>
+      </c>
+      <c r="O90" s="4">
+        <v>2876583.1294669099</v>
+      </c>
+      <c r="P90" s="4">
+        <v>3020413.33117148</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>3171435.0427522799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="4">
+        <v>214966.81513320599</v>
+      </c>
+      <c r="D91" s="4">
+        <v>171335.64910419501</v>
+      </c>
+      <c r="E91" s="4">
+        <v>179903.19329585499</v>
+      </c>
+      <c r="F91" s="4">
+        <v>188899.215270994</v>
+      </c>
+      <c r="G91" s="4">
+        <v>198345.16722400501</v>
+      </c>
+      <c r="H91" s="4">
+        <v>208263.45587370201</v>
+      </c>
+      <c r="I91" s="4">
+        <v>218681.36391165099</v>
+      </c>
+      <c r="J91" s="4">
+        <v>229620.669620987</v>
+      </c>
+      <c r="K91" s="4">
+        <v>241106.28299466401</v>
+      </c>
+      <c r="L91" s="4">
+        <v>253166.89076452999</v>
+      </c>
+      <c r="M91" s="4">
+        <v>317621.26081997802</v>
+      </c>
+      <c r="N91" s="4">
+        <v>279127.34893401101</v>
+      </c>
+      <c r="O91" s="4">
+        <v>293089.00995644002</v>
+      </c>
+      <c r="P91" s="4">
+        <v>307748.75406374602</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>323141.48537411902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1191710.93952976</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1040938.7549134</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1092985.6552295401</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1147635.47320806</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1205018.55312357</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1265261.6880530801</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1328533.1601348501</v>
+      </c>
+      <c r="J92" s="4">
+        <v>1394971.23997836</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1464727.09333014</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1537975.19534566</v>
+      </c>
+      <c r="M92" s="4">
+        <v>1815226.3637691599</v>
+      </c>
+      <c r="N92" s="4">
+        <v>1695641.73532041</v>
+      </c>
+      <c r="O92" s="4">
+        <v>1780435.56954135</v>
+      </c>
+      <c r="P92" s="4">
+        <v>1869469.0957181901</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>1962954.2979399201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="4">
+        <v>236111.965964698</v>
+      </c>
+      <c r="D93" s="4">
+        <v>211371.15118392999</v>
+      </c>
+      <c r="E93" s="4">
+        <v>221939.681506074</v>
+      </c>
+      <c r="F93" s="4">
+        <v>233036.73237222299</v>
+      </c>
+      <c r="G93" s="4">
+        <v>244688.757355237</v>
+      </c>
+      <c r="H93" s="4">
+        <v>256921.439151625</v>
+      </c>
+      <c r="I93" s="4">
+        <v>269769.08570605598</v>
+      </c>
+      <c r="J93" s="4">
+        <v>283259.59007403802</v>
+      </c>
+      <c r="K93" s="4">
+        <v>297423.99285849999</v>
+      </c>
+      <c r="L93" s="4">
+        <v>312297.295805901</v>
+      </c>
+      <c r="M93" s="4">
+        <v>362720.34491155302</v>
+      </c>
+      <c r="N93" s="4">
+        <v>344312.07942197501</v>
+      </c>
+      <c r="O93" s="4">
+        <v>361529.78635860002</v>
+      </c>
+      <c r="P93" s="4">
+        <v>379608.37922247202</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>398590.90116254898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="4">
+        <v>27668751.5381108</v>
+      </c>
+      <c r="D94" s="4">
+        <v>15637765.285884401</v>
+      </c>
+      <c r="E94" s="4">
+        <v>16419652.177862501</v>
+      </c>
+      <c r="F94" s="4">
+        <v>17240637.3909049</v>
+      </c>
+      <c r="G94" s="4">
+        <v>18102676.8005752</v>
+      </c>
+      <c r="H94" s="4">
+        <v>19007710.565234099</v>
+      </c>
+      <c r="I94" s="4">
+        <v>19958161.365800299</v>
+      </c>
+      <c r="J94" s="4">
+        <v>20956153.8407671</v>
+      </c>
+      <c r="K94" s="4">
+        <v>22004021.510641798</v>
+      </c>
+      <c r="L94" s="4">
+        <v>23104309.183858499</v>
+      </c>
+      <c r="M94" s="4">
+        <v>37035251.681873798</v>
+      </c>
+      <c r="N94" s="4">
+        <v>25472678.400157101</v>
+      </c>
+      <c r="O94" s="4">
+        <v>26746398.920233499</v>
+      </c>
+      <c r="P94" s="4">
+        <v>28083805.467953</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>29488082.3424551</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="4">
+        <v>9337.3511964505706</v>
+      </c>
+      <c r="D95" s="4">
+        <v>7335.6277772878802</v>
+      </c>
+      <c r="E95" s="4">
+        <v>7702.4183687004297</v>
+      </c>
+      <c r="F95" s="4">
+        <v>8087.5530472844703</v>
+      </c>
+      <c r="G95" s="4">
+        <v>8491.9509128896607</v>
+      </c>
+      <c r="H95" s="4">
+        <v>8916.5748224504205</v>
+      </c>
+      <c r="I95" s="4">
+        <v>9362.5385808447609</v>
+      </c>
+      <c r="J95" s="4">
+        <v>9830.8256693428702</v>
+      </c>
+      <c r="K95" s="4">
+        <v>10322.4923237639</v>
+      </c>
+      <c r="L95" s="4">
+        <v>10838.7797942261</v>
+      </c>
+      <c r="M95" s="4">
+        <v>13731.929476536399</v>
+      </c>
+      <c r="N95" s="4">
+        <v>11950.0884652149</v>
+      </c>
+      <c r="O95" s="4">
+        <v>12547.7556440712</v>
+      </c>
+      <c r="P95" s="4">
+        <v>13175.306238606099</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>13834.234356368701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="4">
+        <v>53.004769852617102</v>
+      </c>
+      <c r="D96" s="4">
+        <v>41.721102954095201</v>
+      </c>
+      <c r="E96" s="4">
+        <v>43.813189519117998</v>
+      </c>
+      <c r="F96" s="4">
+        <v>46.0099104825754</v>
+      </c>
+      <c r="G96" s="4">
+        <v>48.316565335925901</v>
+      </c>
+      <c r="H96" s="4">
+        <v>50.744919847111099</v>
+      </c>
+      <c r="I96" s="4">
+        <v>53.295723650089499</v>
+      </c>
+      <c r="J96" s="4">
+        <v>55.974311967715501</v>
+      </c>
+      <c r="K96" s="4">
+        <v>58.7866441241096</v>
+      </c>
+      <c r="L96" s="4">
+        <v>61.739717234573597</v>
+      </c>
+      <c r="M96" s="4">
+        <v>78.116646438564203</v>
+      </c>
+      <c r="N96" s="4">
+        <v>68.0963856175714</v>
+      </c>
+      <c r="O96" s="4">
+        <v>71.5150143407012</v>
+      </c>
+      <c r="P96" s="4">
+        <v>75.104485403011097</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>78.873484842006505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1828282.59740231</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1758009.5811471201</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1845908.6814423201</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1938203.5846130101</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2035114.2515405901</v>
+      </c>
+      <c r="H97" s="4">
+        <v>2136837.36706089</v>
+      </c>
+      <c r="I97" s="4">
+        <v>2243686.95234347</v>
+      </c>
+      <c r="J97" s="4">
+        <v>2355882.9324208801</v>
+      </c>
+      <c r="K97" s="4">
+        <v>2473683.8784420998</v>
+      </c>
+      <c r="L97" s="4">
+        <v>2597380.1667640102</v>
+      </c>
+      <c r="M97" s="4">
+        <v>2881247.7133973101</v>
+      </c>
+      <c r="N97" s="4">
+        <v>2863636.4265769199</v>
+      </c>
+      <c r="O97" s="4">
+        <v>3006830.34198752</v>
+      </c>
+      <c r="P97" s="4">
+        <v>3157183.9532903</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>3315055.2451271401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="4">
+        <v>772902.36288992595</v>
+      </c>
+      <c r="D98" s="4">
+        <v>648291.52578598994</v>
+      </c>
+      <c r="E98" s="4">
+        <v>680704.98050228099</v>
+      </c>
+      <c r="F98" s="4">
+        <v>714739.98801170196</v>
+      </c>
+      <c r="G98" s="4">
+        <v>750477.82665717299</v>
+      </c>
+      <c r="H98" s="4">
+        <v>787969.62614433502</v>
+      </c>
+      <c r="I98" s="4">
+        <v>827374.577265898</v>
+      </c>
+      <c r="J98" s="4">
+        <v>868753.95331434405</v>
+      </c>
+      <c r="K98" s="4">
+        <v>912197.02737514197</v>
+      </c>
+      <c r="L98" s="4">
+        <v>957818.00939662894</v>
+      </c>
+      <c r="M98" s="4">
+        <v>1161200.83418878</v>
+      </c>
+      <c r="N98" s="4">
+        <v>1056017.1718655699</v>
+      </c>
+      <c r="O98" s="4">
+        <v>1108829.1603630499</v>
+      </c>
+      <c r="P98" s="4">
+        <v>1164281.7492138401</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>1222506.9666752501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="4">
+        <v>7664.4268232270697</v>
+      </c>
+      <c r="D99" s="4">
+        <v>6655.5414227145202</v>
+      </c>
+      <c r="E99" s="4">
+        <v>6988.3175273633397</v>
+      </c>
+      <c r="F99" s="4">
+        <v>7337.7362328345598</v>
+      </c>
+      <c r="G99" s="4">
+        <v>7704.6307247142704</v>
+      </c>
+      <c r="H99" s="4">
+        <v>8089.7915522395797</v>
+      </c>
+      <c r="I99" s="4">
+        <v>8494.3519819022094</v>
+      </c>
+      <c r="J99" s="4">
+        <v>8919.1593439184599</v>
+      </c>
+      <c r="K99" s="4">
+        <v>9365.1823675758205</v>
+      </c>
+      <c r="L99" s="4">
+        <v>9833.5333618865498</v>
+      </c>
+      <c r="M99" s="4">
+        <v>11651.116931315401</v>
+      </c>
+      <c r="N99" s="4">
+        <v>10841.658880159301</v>
+      </c>
+      <c r="O99" s="4">
+        <v>11383.8337011003</v>
+      </c>
+      <c r="P99" s="4">
+        <v>11953.117264983901</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>12550.8650047389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="4">
+        <v>68839.310582731894</v>
+      </c>
+      <c r="D100" s="4">
+        <v>69518.583097192706</v>
+      </c>
+      <c r="E100" s="4">
+        <v>72994.553902133004</v>
+      </c>
+      <c r="F100" s="4">
+        <v>76644.366928215502</v>
+      </c>
+      <c r="G100" s="4">
+        <v>80476.735900829997</v>
+      </c>
+      <c r="H100" s="4">
+        <v>84501.011467806995</v>
+      </c>
+      <c r="I100" s="4">
+        <v>88726.892885822206</v>
+      </c>
+      <c r="J100" s="4">
+        <v>93164.329873238195</v>
+      </c>
+      <c r="K100" s="4">
+        <v>97823.257119824702</v>
+      </c>
+      <c r="L100" s="4">
+        <v>102715.53824214</v>
+      </c>
+      <c r="M100" s="4">
+        <v>110483.60929377</v>
+      </c>
+      <c r="N100" s="4">
+        <v>113246.173406748</v>
+      </c>
+      <c r="O100" s="4">
+        <v>118909.60033258201</v>
+      </c>
+      <c r="P100" s="4">
+        <v>124856.198590934</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>131100.126796489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="4">
+        <v>89640.692649122095</v>
+      </c>
+      <c r="D101" s="4">
+        <v>90991.149712268205</v>
+      </c>
+      <c r="E101" s="4">
+        <v>95540.345811185805</v>
+      </c>
+      <c r="F101" s="4">
+        <v>100317.127515574</v>
+      </c>
+      <c r="G101" s="4">
+        <v>105332.88273349599</v>
+      </c>
+      <c r="H101" s="4">
+        <v>110592.120748702</v>
+      </c>
+      <c r="I101" s="4">
+        <v>116122.505351025</v>
+      </c>
+      <c r="J101" s="4">
+        <v>121929.911795683</v>
+      </c>
+      <c r="K101" s="4">
+        <v>128027.144853711</v>
+      </c>
+      <c r="L101" s="4">
+        <v>134429.848918462</v>
+      </c>
+      <c r="M101" s="4">
+        <v>144134.79883535099</v>
+      </c>
+      <c r="N101" s="4">
+        <v>148211.66945250001</v>
+      </c>
+      <c r="O101" s="4">
+        <v>155623.599753082</v>
+      </c>
+      <c r="P101" s="4">
+        <v>163406.1265819</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>171577.779739347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="4">
+        <v>45698.9047050722</v>
+      </c>
+      <c r="D102" s="4">
+        <v>43446.778243660097</v>
+      </c>
+      <c r="E102" s="4">
+        <v>45618.988155683197</v>
+      </c>
+      <c r="F102" s="4">
+        <v>47899.8660182358</v>
+      </c>
+      <c r="G102" s="4">
+        <v>50294.856546616102</v>
+      </c>
+      <c r="H102" s="4">
+        <v>52806.957448319299</v>
+      </c>
+      <c r="I102" s="4">
+        <v>55447.426737678099</v>
+      </c>
+      <c r="J102" s="4">
+        <v>58220.183564340798</v>
+      </c>
+      <c r="K102" s="4">
+        <v>61131.2533160979</v>
+      </c>
+      <c r="L102" s="4">
+        <v>64188.232707061099</v>
+      </c>
+      <c r="M102" s="4">
+        <v>71718.958873979398</v>
+      </c>
+      <c r="N102" s="4">
+        <v>70768.380840954094</v>
+      </c>
+      <c r="O102" s="4">
+        <v>74307.216600410393</v>
+      </c>
+      <c r="P102" s="4">
+        <v>78022.994150690196</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>81924.560578937802</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="4">
+        <v>4781.7678171559701</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4582.9971092665701</v>
+      </c>
+      <c r="E103" s="4">
+        <v>4812.1463011885498</v>
+      </c>
+      <c r="F103" s="4">
+        <v>5052.7562830992401</v>
+      </c>
+      <c r="G103" s="4">
+        <v>5305.4011625718904</v>
+      </c>
+      <c r="H103" s="4">
+        <v>5570.5885961219701</v>
+      </c>
+      <c r="I103" s="4">
+        <v>5849.1377970440599</v>
+      </c>
+      <c r="J103" s="4">
+        <v>6141.6317434446701</v>
+      </c>
+      <c r="K103" s="4">
+        <v>6448.7271029679296</v>
+      </c>
+      <c r="L103" s="4">
+        <v>6771.2023937173099</v>
+      </c>
+      <c r="M103" s="4">
+        <v>7526.80947985083</v>
+      </c>
+      <c r="N103" s="4">
+        <v>7465.3304353037202</v>
+      </c>
+      <c r="O103" s="4">
+        <v>7838.63589504839</v>
+      </c>
+      <c r="P103" s="4">
+        <v>8230.6066135502297</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>8642.17587981818</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="4">
+        <v>7620.62046707432</v>
+      </c>
+      <c r="D104" s="4">
+        <v>6813.67621104928</v>
+      </c>
+      <c r="E104" s="4">
+        <v>7154.3739538930604</v>
+      </c>
+      <c r="F104" s="4">
+        <v>7512.1102105953496</v>
+      </c>
+      <c r="G104" s="4">
+        <v>7887.7383512386696</v>
+      </c>
+      <c r="H104" s="4">
+        <v>8282.1983884778492</v>
+      </c>
+      <c r="I104" s="4">
+        <v>8696.4579759080807</v>
+      </c>
+      <c r="J104" s="4">
+        <v>9131.4506624604492</v>
+      </c>
+      <c r="K104" s="4">
+        <v>9588.1648222718704</v>
+      </c>
+      <c r="L104" s="4">
+        <v>10067.7449355148</v>
+      </c>
+      <c r="M104" s="4">
+        <v>11702.722356685999</v>
+      </c>
+      <c r="N104" s="4">
+        <v>11100.0411334378</v>
+      </c>
+      <c r="O104" s="4">
+        <v>11655.2150663502</v>
+      </c>
+      <c r="P104" s="4">
+        <v>12238.1476965743</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>12850.2269534598</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="4">
+        <v>977.72758179467496</v>
+      </c>
+      <c r="D105" s="4">
+        <v>754.15696815333695</v>
+      </c>
+      <c r="E105" s="4">
+        <v>791.87384453783102</v>
+      </c>
+      <c r="F105" s="4">
+        <v>831.47732950865702</v>
+      </c>
+      <c r="G105" s="4">
+        <v>873.06200610205804</v>
+      </c>
+      <c r="H105" s="4">
+        <v>916.76791241957005</v>
+      </c>
+      <c r="I105" s="4">
+        <v>962.681480589834</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1010.89472468082</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1061.51320425368</v>
+      </c>
+      <c r="L105" s="4">
+        <v>1114.66846232025</v>
+      </c>
+      <c r="M105" s="4">
+        <v>1429.9729438843899</v>
+      </c>
+      <c r="N105" s="4">
+        <v>1229.08517139268</v>
+      </c>
+      <c r="O105" s="4">
+        <v>1290.6190348115599</v>
+      </c>
+      <c r="P105" s="4">
+        <v>1355.22958668461</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>1423.07067139382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="4">
+        <v>150.281571187678</v>
+      </c>
+      <c r="D106" s="4">
+        <v>151.033630551296</v>
+      </c>
+      <c r="E106" s="4">
+        <v>158.585456444599</v>
+      </c>
+      <c r="F106" s="4">
+        <v>166.51491481709499</v>
+      </c>
+      <c r="G106" s="4">
+        <v>174.84090578202299</v>
+      </c>
+      <c r="H106" s="4">
+        <v>183.58418684653401</v>
+      </c>
+      <c r="I106" s="4">
+        <v>192.765282813385</v>
+      </c>
+      <c r="J106" s="4">
+        <v>202.40567068498601</v>
+      </c>
+      <c r="K106" s="4">
+        <v>212.52773963404499</v>
+      </c>
+      <c r="L106" s="4">
+        <v>223.156274416911</v>
+      </c>
+      <c r="M106" s="4">
+        <v>240.75639188034</v>
+      </c>
+      <c r="N106" s="4">
+        <v>246.03419561219101</v>
+      </c>
+      <c r="O106" s="4">
+        <v>258.33805331281599</v>
+      </c>
+      <c r="P106" s="4">
+        <v>271.25710379340501</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>284.82210679353301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4">
+        <v>9476.3879911168096</v>
+      </c>
+      <c r="D107" s="4">
+        <v>8139.7366059885098</v>
+      </c>
+      <c r="E107" s="4">
+        <v>8546.5901200930402</v>
+      </c>
+      <c r="F107" s="4">
+        <v>8973.8263942822505</v>
+      </c>
+      <c r="G107" s="4">
+        <v>9422.4685474918697</v>
+      </c>
+      <c r="H107" s="4">
+        <v>9891.1182290495599</v>
+      </c>
+      <c r="I107" s="4">
+        <v>10385.6394933714</v>
+      </c>
+      <c r="J107" s="4">
+        <v>10905.0528311094</v>
+      </c>
+      <c r="K107" s="4">
+        <v>11450.2505020396</v>
+      </c>
+      <c r="L107" s="4">
+        <v>12022.915519773</v>
+      </c>
+      <c r="M107" s="4">
+        <v>14348.344715769799</v>
+      </c>
+      <c r="N107" s="4">
+        <v>13255.5769581002</v>
+      </c>
+      <c r="O107" s="4">
+        <v>13918.508285273299</v>
+      </c>
+      <c r="P107" s="4">
+        <v>14614.5861883538</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>15345.4679866156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4">
+        <v>55712.7869011652</v>
+      </c>
+      <c r="D108" s="4">
+        <v>57611.481191143503</v>
+      </c>
+      <c r="E108" s="4">
+        <v>60486.709640362598</v>
+      </c>
+      <c r="F108" s="4">
+        <v>63507.017841303001</v>
+      </c>
+      <c r="G108" s="4">
+        <v>66679.735585017304</v>
+      </c>
+      <c r="H108" s="4">
+        <v>69919.708989042701</v>
+      </c>
+      <c r="I108" s="4">
+        <v>73409.290798507805</v>
+      </c>
+      <c r="J108" s="4">
+        <v>77078.551388432999</v>
+      </c>
+      <c r="K108" s="4">
+        <v>80925.724869102807</v>
+      </c>
+      <c r="L108" s="4">
+        <v>84971.492913877693</v>
+      </c>
+      <c r="M108" s="4">
+        <v>90059.167868519799</v>
+      </c>
+      <c r="N108" s="4">
+        <v>93680.008613936894</v>
+      </c>
+      <c r="O108" s="4">
+        <v>98363.490846949906</v>
+      </c>
+      <c r="P108" s="4">
+        <v>103281.14718598399</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>108444.68632758</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="4">
+        <v>42029.394603405803</v>
+      </c>
+      <c r="D109" s="4">
+        <v>43941.546613755898</v>
+      </c>
+      <c r="E109" s="4">
+        <v>46138.621126722101</v>
+      </c>
+      <c r="F109" s="4">
+        <v>48445.550795157302</v>
+      </c>
+      <c r="G109" s="4">
+        <v>50867.8287221481</v>
+      </c>
+      <c r="H109" s="4">
+        <v>53411.165763262303</v>
+      </c>
+      <c r="I109" s="4">
+        <v>56081.7304434486</v>
+      </c>
+      <c r="J109" s="4">
+        <v>58885.830258057198</v>
+      </c>
+      <c r="K109" s="4">
+        <v>61830.126287703497</v>
+      </c>
+      <c r="L109" s="4">
+        <v>64921.646685754298</v>
+      </c>
+      <c r="M109" s="4">
+        <v>68348.042998956895</v>
+      </c>
+      <c r="N109" s="4">
+        <v>71576.144362334599</v>
+      </c>
+      <c r="O109" s="4">
+        <v>75154.965612135304</v>
+      </c>
+      <c r="P109" s="4">
+        <v>78912.728014503096</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>82858.378474648198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="4">
+        <v>47562.784267075302</v>
+      </c>
+      <c r="D110" s="4">
+        <v>49531.608534248902</v>
+      </c>
+      <c r="E110" s="4">
+        <v>52003.666731064201</v>
+      </c>
+      <c r="F110" s="4">
+        <v>54602.474329269397</v>
+      </c>
+      <c r="G110" s="4">
+        <v>57336.050064379502</v>
+      </c>
+      <c r="H110" s="4">
+        <v>60168.607261926598</v>
+      </c>
+      <c r="I110" s="4">
+        <v>63154.555348891598</v>
+      </c>
+      <c r="J110" s="4">
+        <v>66309.222351875898</v>
+      </c>
+      <c r="K110" s="4">
+        <v>69592.839184857905</v>
+      </c>
+      <c r="L110" s="4">
+        <v>73071.308318974305</v>
+      </c>
+      <c r="M110" s="4">
+        <v>77109.217760227199</v>
+      </c>
+      <c r="N110" s="4">
+        <v>80558.713104200098</v>
+      </c>
+      <c r="O110" s="4">
+        <v>84585.475926801795</v>
+      </c>
+      <c r="P110" s="4">
+        <v>88813.576893120699</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>93253.082894248597</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="4">
+        <v>42620.364597570297</v>
+      </c>
+      <c r="D111" s="4">
+        <v>43464.8929496001</v>
+      </c>
+      <c r="E111" s="4">
+        <v>45659.825137207299</v>
+      </c>
+      <c r="F111" s="4">
+        <v>47964.514493720002</v>
+      </c>
+      <c r="G111" s="4">
+        <v>50384.451437628202</v>
+      </c>
+      <c r="H111" s="4">
+        <v>53122.285503871397</v>
+      </c>
+      <c r="I111" s="4">
+        <v>55997.458097579904</v>
+      </c>
+      <c r="J111" s="4">
+        <v>59016.440063571397</v>
+      </c>
+      <c r="K111" s="4">
+        <v>62186.306555548901</v>
+      </c>
+      <c r="L111" s="4">
+        <v>65514.736756168</v>
+      </c>
+      <c r="M111" s="4">
+        <v>70255.471724355099</v>
+      </c>
+      <c r="N111" s="4">
+        <v>72679.182768494793</v>
+      </c>
+      <c r="O111" s="4">
+        <v>76532.2567747555</v>
+      </c>
+      <c r="P111" s="4">
+        <v>80577.984490538001</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>84825.998599480197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="4">
+        <v>23.848591278914299</v>
+      </c>
+      <c r="D112" s="4">
+        <v>25.041022055296001</v>
+      </c>
+      <c r="E112" s="4">
+        <v>26.293072349770199</v>
+      </c>
+      <c r="F112" s="4">
+        <v>27.607724754822701</v>
+      </c>
+      <c r="G112" s="4">
+        <v>28.988107355255899</v>
+      </c>
+      <c r="H112" s="4">
+        <v>30.437517976907898</v>
+      </c>
+      <c r="I112" s="4">
+        <v>31.959391855026698</v>
+      </c>
+      <c r="J112" s="4">
+        <v>33.557358214615398</v>
+      </c>
+      <c r="K112" s="4">
+        <v>35.235232187526101</v>
+      </c>
+      <c r="L112" s="4">
+        <v>36.9969905637398</v>
+      </c>
+      <c r="M112" s="4">
+        <v>38.846836454618902</v>
+      </c>
+      <c r="N112" s="4">
+        <v>40.7891831270937</v>
+      </c>
+      <c r="O112" s="4">
+        <v>42.828637837849797</v>
+      </c>
+      <c r="P112" s="4">
+        <v>44.970074579486202</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>47.2185775001699</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" ref="C113:P113" si="1">SUM(C61:C112)</f>
+        <v>63189627.418027245</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="1"/>
+        <v>41058097.615638062</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="1"/>
+        <v>43111020.005584024</v>
+      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="1"/>
+        <v>45266610.16436407</v>
+      </c>
+      <c r="G113" s="6">
+        <f t="shared" si="1"/>
+        <v>47530008.432826258</v>
+      </c>
+      <c r="H113" s="6">
+        <f t="shared" si="1"/>
+        <v>49906349.121852964</v>
+      </c>
+      <c r="I113" s="6">
+        <f t="shared" si="1"/>
+        <v>52402192.070558056</v>
+      </c>
+      <c r="J113" s="6">
+        <f t="shared" si="1"/>
+        <v>55022939.27262371</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" si="1"/>
+        <v>57774573.454830997</v>
+      </c>
+      <c r="L113" s="6">
+        <f t="shared" si="1"/>
+        <v>60663951.946209133</v>
+      </c>
+      <c r="M113" s="6">
+        <f t="shared" si="1"/>
+        <v>87784493.345968843</v>
+      </c>
+      <c r="N113" s="6">
+        <f t="shared" si="1"/>
+        <v>66883339.146235995</v>
+      </c>
+      <c r="O113" s="6">
+        <f t="shared" si="1"/>
+        <v>70228155.920840561</v>
+      </c>
+      <c r="P113" s="6">
+        <f t="shared" si="1"/>
+        <v>73740213.539571434</v>
+      </c>
+      <c r="Q113" s="6">
+        <f>SUM(Q61:Q112)</f>
+        <v>77427874.037520379</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>62</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>2016</v>
+      </c>
+      <c r="C119">
+        <v>63189627.4180272</v>
+      </c>
+      <c r="D119">
+        <v>63189627.4180272</v>
+      </c>
+      <c r="E119">
+        <v>2278605801.7028599</v>
+      </c>
+      <c r="F119">
+        <v>2.7731706542133801E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>2017</v>
+      </c>
+      <c r="C120">
+        <v>41058097.6156381</v>
+      </c>
+      <c r="D120">
+        <v>104247725.033665</v>
+      </c>
+      <c r="E120">
+        <v>1681474281.6265199</v>
+      </c>
+      <c r="F120">
+        <v>2.44179159112216E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>2018</v>
+      </c>
+      <c r="C121">
+        <v>43111020.005584098</v>
+      </c>
+      <c r="D121">
+        <v>147358745.039249</v>
+      </c>
+      <c r="E121">
+        <v>1765567540.0392499</v>
+      </c>
+      <c r="F121">
+        <v>2.44176555288424E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>2019</v>
+      </c>
+      <c r="C122">
+        <v>45266610.164364003</v>
+      </c>
+      <c r="D122">
+        <v>192625355.20361301</v>
+      </c>
+      <c r="E122">
+        <v>1853868008.8847301</v>
+      </c>
+      <c r="F122">
+        <v>2.4417385675475401E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2020</v>
+      </c>
+      <c r="C123">
+        <v>47530008.432826303</v>
+      </c>
+      <c r="D123">
+        <v>240155363.63644001</v>
+      </c>
+      <c r="E123">
+        <v>1946586785.4428699</v>
+      </c>
+      <c r="F123">
+        <v>2.44171021750836E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>2021</v>
+      </c>
+      <c r="C124">
+        <v>49906349.121853001</v>
+      </c>
+      <c r="D124">
+        <v>290061712.75829297</v>
+      </c>
+      <c r="E124">
+        <v>2043990792.0044899</v>
+      </c>
+      <c r="F124">
+        <v>2.4416132067263899E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>2022</v>
+      </c>
+      <c r="C125">
+        <v>52402192.070558101</v>
+      </c>
+      <c r="D125">
+        <v>342463904.82885098</v>
+      </c>
+      <c r="E125">
+        <v>2146356614.9789801</v>
+      </c>
+      <c r="F125">
+        <v>2.44144853212435E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>2023</v>
+      </c>
+      <c r="C126">
+        <v>55022939.272623703</v>
+      </c>
+      <c r="D126">
+        <v>397486844.10147399</v>
+      </c>
+      <c r="E126">
+        <v>2253853536.6005001</v>
+      </c>
+      <c r="F126">
+        <v>2.4412828242431E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>2024</v>
+      </c>
+      <c r="C127">
+        <v>57774573.454830997</v>
+      </c>
+      <c r="D127">
+        <v>455261417.55630499</v>
+      </c>
+      <c r="E127">
+        <v>2366708463.89428</v>
+      </c>
+      <c r="F127">
+        <v>2.4411360476468E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>2025</v>
+      </c>
+      <c r="C128">
+        <v>60663951.946209103</v>
+      </c>
+      <c r="D128">
+        <v>515925369.50251502</v>
+      </c>
+      <c r="E128">
+        <v>2485224401.9521198</v>
+      </c>
+      <c r="F128">
+        <v>2.4409848824338901E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>2026</v>
+      </c>
+      <c r="C129">
+        <v>87784493.345968902</v>
+      </c>
+      <c r="D129">
+        <v>603709862.84848297</v>
+      </c>
+      <c r="E129">
+        <v>3286886474.4183202</v>
+      </c>
+      <c r="F129">
+        <v>2.6707491733952898E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>2027</v>
+      </c>
+      <c r="C130">
+        <v>66883339.146236002</v>
+      </c>
+      <c r="D130">
+        <v>670593201.99471998</v>
+      </c>
+      <c r="E130">
+        <v>2740329958.7543898</v>
+      </c>
+      <c r="F130">
+        <v>2.44070386241509E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>2028</v>
+      </c>
+      <c r="C131">
+        <v>70228155.920840606</v>
+      </c>
+      <c r="D131">
+        <v>740821357.91556001</v>
+      </c>
+      <c r="E131">
+        <v>2877526971.40452</v>
+      </c>
+      <c r="F131">
+        <v>2.4405733332383699E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>2029</v>
+      </c>
+      <c r="C132">
+        <v>73740213.539571404</v>
+      </c>
+      <c r="D132">
+        <v>814561571.45513105</v>
+      </c>
+      <c r="E132">
+        <v>3021583834.9614</v>
+      </c>
+      <c r="F132">
+        <v>2.44044903491859E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>2030</v>
+      </c>
+      <c r="C133">
+        <v>77427874.037520394</v>
+      </c>
+      <c r="D133">
+        <v>891989445.49265206</v>
+      </c>
+      <c r="E133">
+        <v>3172843541.5791798</v>
+      </c>
+      <c r="F133">
+        <v>2.4403306694090299E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" t="s">
+        <v>68</v>
+      </c>
+      <c r="E136" t="s">
+        <v>69</v>
+      </c>
+      <c r="F136" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2016</v>
+      </c>
+      <c r="C137">
+        <v>37456443.265384503</v>
+      </c>
+      <c r="D137" s="8">
+        <v>37456443.265384503</v>
+      </c>
+      <c r="E137">
+        <v>1524974828.3</v>
+      </c>
+      <c r="F137">
+        <v>2.4562007562537898E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>2017</v>
+      </c>
+      <c r="C138">
+        <v>37502893.933341101</v>
+      </c>
+      <c r="D138" s="8">
+        <v>74959337.198725596</v>
+      </c>
+      <c r="E138">
+        <v>1601223569.4158299</v>
+      </c>
+      <c r="F138">
+        <v>2.3421397642193802E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>2018</v>
+      </c>
+      <c r="C139">
+        <v>37551667.134695597</v>
+      </c>
+      <c r="D139" s="8">
+        <v>112511004.33342101</v>
+      </c>
+      <c r="E139">
+        <v>1681284747.8866301</v>
+      </c>
+      <c r="F139">
+        <v>2.2335102475590798E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>2019</v>
+      </c>
+      <c r="C140">
+        <v>37602878.996117897</v>
+      </c>
+      <c r="D140" s="8">
+        <v>150113883.329539</v>
+      </c>
+      <c r="E140">
+        <v>1765348985.2809601</v>
+      </c>
+      <c r="F140">
+        <v>2.1300535650254599E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>2020</v>
+      </c>
+      <c r="C141">
+        <v>37656651.450611196</v>
+      </c>
+      <c r="D141" s="8">
+        <v>187770534.78015</v>
+      </c>
+      <c r="E141">
+        <v>1853616434.5450101</v>
+      </c>
+      <c r="F141">
+        <v>2.03152339118392E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>2021</v>
+      </c>
+      <c r="C142">
+        <v>37713112.5278292</v>
+      </c>
+      <c r="D142" s="8">
+        <v>225483647.30797899</v>
+      </c>
+      <c r="E142">
+        <v>1946297256.27226</v>
+      </c>
+      <c r="F142">
+        <v>1.9376851303824501E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>2022</v>
+      </c>
+      <c r="C143">
+        <v>37772396.658908099</v>
+      </c>
+      <c r="D143" s="8">
+        <v>263256043.96688801</v>
+      </c>
+      <c r="E143">
+        <v>2043612119.08587</v>
+      </c>
+      <c r="F143">
+        <v>1.84831535819058E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>2023</v>
+      </c>
+      <c r="C144">
+        <v>37834644.996540897</v>
+      </c>
+      <c r="D144" s="8">
+        <v>301090688.96342802</v>
+      </c>
+      <c r="E144">
+        <v>2145792725.0401599</v>
+      </c>
+      <c r="F144">
+        <v>1.7632012894364099E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>2024</v>
+      </c>
+      <c r="C145">
+        <v>37900005.751055397</v>
+      </c>
+      <c r="D145" s="8">
+        <v>338990694.71448398</v>
+      </c>
+      <c r="E145">
+        <v>2253082361.29217</v>
+      </c>
+      <c r="F145">
+        <v>1.6821402715753001E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>2025</v>
+      </c>
+      <c r="C146">
+        <v>37968634.5432956</v>
+      </c>
+      <c r="D146" s="8">
+        <v>376959329.257779</v>
+      </c>
+      <c r="E146">
+        <v>2365736479.3567801</v>
+      </c>
+      <c r="F146">
+        <v>1.60493930218377E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>2026</v>
+      </c>
+      <c r="C147">
+        <v>38040694.775147803</v>
+      </c>
+      <c r="D147" s="8">
+        <v>415000024.03292698</v>
+      </c>
+      <c r="E147">
+        <v>2484023303.3246198</v>
+      </c>
+      <c r="F147">
+        <v>1.53141456942993E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>2027</v>
+      </c>
+      <c r="C148">
+        <v>38116358.0185927</v>
+      </c>
+      <c r="D148" s="8">
+        <v>453116382.05151999</v>
+      </c>
+      <c r="E148">
+        <v>2608224468.49085</v>
+      </c>
+      <c r="F148">
+        <v>1.46139101442627E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>2028</v>
+      </c>
+      <c r="C149">
+        <v>38195804.424209803</v>
+      </c>
+      <c r="D149" s="8">
+        <v>491312186.47573</v>
+      </c>
+      <c r="E149">
+        <v>2738635691.91539</v>
+      </c>
+      <c r="F149">
+        <v>1.39470191442279E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>2029</v>
+      </c>
+      <c r="C150">
+        <v>38279223.150107697</v>
+      </c>
+      <c r="D150" s="8">
+        <v>529591409.62583703</v>
+      </c>
+      <c r="E150">
+        <v>2875567476.5111599</v>
+      </c>
+      <c r="F150">
+        <v>1.3311884858480399E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2030</v>
+      </c>
+      <c r="C151">
+        <v>38366812.812300503</v>
+      </c>
+      <c r="D151" s="8">
+        <v>567958222.43813801</v>
+      </c>
+      <c r="E151">
+        <v>3019345850.33672</v>
+      </c>
+      <c r="F151">
+        <v>1.27069950625305E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:Q59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>